--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30928.48085543271</v>
+        <v>28359.14438195603</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10101025.36163977</v>
+        <v>10101025.36163976</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.0002360527444</v>
+        <v>354.0002360527445</v>
       </c>
       <c r="C11" t="n">
-        <v>65.93558468127938</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>325.9494360099468</v>
+        <v>70.7185403012069</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>353.1967644615257</v>
       </c>
       <c r="F11" t="n">
-        <v>378.1424401309753</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.181575474892</v>
+        <v>382.1815754748922</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>265.8071342213443</v>
       </c>
       <c r="I11" t="n">
-        <v>12.59101471110781</v>
+        <v>12.59101471110793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>80.3050218381225</v>
       </c>
       <c r="T11" t="n">
-        <v>175.1557156832291</v>
+        <v>175.1557156832292</v>
       </c>
       <c r="U11" t="n">
-        <v>222.2610427827398</v>
+        <v>222.2610427827399</v>
       </c>
       <c r="V11" t="n">
-        <v>299.0186528593987</v>
+        <v>299.0186528593989</v>
       </c>
       <c r="W11" t="n">
-        <v>320.5073631066768</v>
+        <v>320.507363106677</v>
       </c>
       <c r="X11" t="n">
-        <v>340.9974950677329</v>
+        <v>340.997495067733</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.5043330453174</v>
+        <v>357.5043330453175</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0983745712011</v>
+        <v>151.0983745712012</v>
       </c>
       <c r="C13" t="n">
-        <v>138.5132154878917</v>
+        <v>138.5132154878918</v>
       </c>
       <c r="D13" t="n">
-        <v>119.8818674074762</v>
+        <v>119.8818674074763</v>
       </c>
       <c r="E13" t="n">
-        <v>117.700357035833</v>
+        <v>117.7003570358331</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6874424121951</v>
+        <v>5.77543820222327</v>
       </c>
       <c r="G13" t="n">
-        <v>30.57075970971061</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9953085478616</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>60.06654875889623</v>
+        <v>60.06654875889635</v>
       </c>
       <c r="S13" t="n">
-        <v>160.984259036942</v>
+        <v>160.9842590369421</v>
       </c>
       <c r="T13" t="n">
-        <v>190.802800357468</v>
+        <v>190.8028003574681</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>257.4780724675411</v>
       </c>
       <c r="V13" t="n">
-        <v>223.4040377130918</v>
+        <v>223.404037713092</v>
       </c>
       <c r="W13" t="n">
-        <v>257.7893927258548</v>
+        <v>257.789392725855</v>
       </c>
       <c r="X13" t="n">
-        <v>196.976049778301</v>
+        <v>196.9760497783011</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.8510477413586</v>
+        <v>189.8510477413587</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>354.0002360527444</v>
+        <v>354.0002360527446</v>
       </c>
       <c r="C14" t="n">
-        <v>336.5392861602714</v>
+        <v>336.5392861602716</v>
       </c>
       <c r="D14" t="n">
-        <v>325.9494360099468</v>
+        <v>91.68358718625339</v>
       </c>
       <c r="E14" t="n">
-        <v>353.1967644615256</v>
+        <v>353.1967644615258</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>382.181575474892</v>
+        <v>382.1815754748922</v>
       </c>
       <c r="H14" t="n">
-        <v>262.5960676914699</v>
+        <v>265.8071342213444</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.59101471110801</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>80.30502183812254</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>175.1557156832293</v>
       </c>
       <c r="U14" t="n">
-        <v>222.2610427827398</v>
+        <v>222.26104278274</v>
       </c>
       <c r="V14" t="n">
-        <v>299.0186528593987</v>
+        <v>299.0186528593989</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>320.507363106677</v>
       </c>
       <c r="X14" t="n">
-        <v>340.9974950677329</v>
+        <v>340.997495067733</v>
       </c>
       <c r="Y14" t="n">
-        <v>357.5043330453174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I15" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0983745712011</v>
+        <v>151.0983745712013</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.5132154878919</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8818674074762</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.7003570358332</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2892669804704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9953085478616</v>
+        <v>115.9953085478618</v>
       </c>
       <c r="I16" t="n">
-        <v>67.53053126133958</v>
+        <v>9.661997061836407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.240452695176413</v>
+        <v>60.06654875889642</v>
       </c>
       <c r="S16" t="n">
-        <v>160.984259036942</v>
+        <v>160.9842590369422</v>
       </c>
       <c r="T16" t="n">
-        <v>190.802800357468</v>
+        <v>190.8028003574682</v>
       </c>
       <c r="U16" t="n">
-        <v>257.478072467541</v>
+        <v>257.4780724675412</v>
       </c>
       <c r="V16" t="n">
-        <v>223.4040377130918</v>
+        <v>223.404037713092</v>
       </c>
       <c r="W16" t="n">
-        <v>257.7893927258548</v>
+        <v>257.789392725855</v>
       </c>
       <c r="X16" t="n">
-        <v>196.976049778301</v>
+        <v>196.9760497783012</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.8510477413586</v>
+        <v>189.8510477413588</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>215.3942391780393</v>
+        <v>312.9363881857257</v>
       </c>
       <c r="C17" t="n">
         <v>295.4754382932527</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>284.8855881429281</v>
       </c>
       <c r="E17" t="n">
         <v>312.1329165945069</v>
@@ -1856,7 +1856,7 @@
         <v>337.0785922639566</v>
       </c>
       <c r="G17" t="n">
-        <v>341.1177276078733</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>224.7432863543255</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.24117397110362</v>
+        <v>39.24117397110365</v>
       </c>
       <c r="T17" t="n">
         <v>134.0918678162104</v>
@@ -1910,7 +1910,7 @@
         <v>299.9336472007142</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.4404851782987</v>
+        <v>275.1304756355571</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I18" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>75.62359454517637</v>
       </c>
       <c r="G19" t="n">
-        <v>96.22541911345175</v>
+        <v>96.22541911345174</v>
       </c>
       <c r="H19" t="n">
-        <v>74.93146068084295</v>
+        <v>74.93146068084293</v>
       </c>
       <c r="I19" t="n">
-        <v>26.46668339432086</v>
+        <v>26.46668339432087</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.00270089187751</v>
+        <v>19.00270089187752</v>
       </c>
       <c r="S19" t="n">
         <v>119.9204111699233</v>
@@ -2081,22 +2081,22 @@
         <v>312.9363881857257</v>
       </c>
       <c r="C20" t="n">
-        <v>295.4754382932527</v>
+        <v>295.4754382932526</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>284.885588142928</v>
       </c>
       <c r="E20" t="n">
         <v>312.1329165945069</v>
       </c>
       <c r="F20" t="n">
-        <v>337.0785922639566</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>341.1177276078733</v>
+        <v>295.7685827212156</v>
       </c>
       <c r="H20" t="n">
-        <v>224.7432863543255</v>
+        <v>224.7432863543254</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.24117397110363</v>
+        <v>39.24117397110361</v>
       </c>
       <c r="T20" t="n">
-        <v>36.54971880852295</v>
+        <v>134.0918678162103</v>
       </c>
       <c r="U20" t="n">
-        <v>181.1971949157211</v>
+        <v>181.197194915721</v>
       </c>
       <c r="V20" t="n">
         <v>257.95480499238</v>
       </c>
       <c r="W20" t="n">
-        <v>279.4435152396582</v>
+        <v>279.4435152396581</v>
       </c>
       <c r="X20" t="n">
-        <v>299.9336472007142</v>
+        <v>299.9336472007141</v>
       </c>
       <c r="Y20" t="n">
         <v>316.4404851782987</v>
@@ -2178,7 +2178,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I21" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>110.0345267041824</v>
       </c>
       <c r="C22" t="n">
-        <v>97.44936762087296</v>
+        <v>97.44936762087292</v>
       </c>
       <c r="D22" t="n">
-        <v>78.81801954045748</v>
+        <v>78.81801954045744</v>
       </c>
       <c r="E22" t="n">
-        <v>76.6365091688143</v>
+        <v>76.63650916881426</v>
       </c>
       <c r="F22" t="n">
-        <v>75.62359454517637</v>
+        <v>75.62359454517633</v>
       </c>
       <c r="G22" t="n">
-        <v>96.22541911345174</v>
+        <v>96.22541911345171</v>
       </c>
       <c r="H22" t="n">
-        <v>74.93146068084293</v>
+        <v>74.9314606808429</v>
       </c>
       <c r="I22" t="n">
-        <v>26.46668339432087</v>
+        <v>26.46668339432083</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.00270089187751</v>
+        <v>19.00270089187748</v>
       </c>
       <c r="S22" t="n">
         <v>119.9204111699233</v>
@@ -2293,7 +2293,7 @@
         <v>149.7389524904493</v>
       </c>
       <c r="U22" t="n">
-        <v>216.4142246005223</v>
+        <v>216.4142246005222</v>
       </c>
       <c r="V22" t="n">
         <v>182.3401898460731</v>
@@ -2302,7 +2302,7 @@
         <v>216.7255448588361</v>
       </c>
       <c r="X22" t="n">
-        <v>155.9122019112823</v>
+        <v>155.9122019112822</v>
       </c>
       <c r="Y22" t="n">
         <v>148.7871998743399</v>
@@ -2318,22 +2318,22 @@
         <v>312.9363881857257</v>
       </c>
       <c r="C23" t="n">
-        <v>295.4754382932527</v>
+        <v>295.4754382932526</v>
       </c>
       <c r="D23" t="n">
-        <v>284.8855881429281</v>
+        <v>284.885588142928</v>
       </c>
       <c r="E23" t="n">
         <v>312.1329165945069</v>
       </c>
       <c r="F23" t="n">
-        <v>337.0785922639566</v>
+        <v>337.0785922639565</v>
       </c>
       <c r="G23" t="n">
         <v>341.1177276078733</v>
       </c>
       <c r="H23" t="n">
-        <v>224.7432863543255</v>
+        <v>224.7432863543254</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.24117397110363</v>
+        <v>39.24117397110361</v>
       </c>
       <c r="T23" t="n">
-        <v>134.0918678162104</v>
+        <v>134.0918678162103</v>
       </c>
       <c r="U23" t="n">
-        <v>181.1971949157211</v>
+        <v>181.197194915721</v>
       </c>
       <c r="V23" t="n">
         <v>257.95480499238</v>
       </c>
       <c r="W23" t="n">
-        <v>279.4435152396582</v>
+        <v>279.4435152396581</v>
       </c>
       <c r="X23" t="n">
-        <v>299.9336472007142</v>
+        <v>299.9336472007141</v>
       </c>
       <c r="Y23" t="n">
         <v>316.4404851782987</v>
@@ -2415,7 +2415,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I24" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>110.0345267041824</v>
       </c>
       <c r="C25" t="n">
-        <v>97.44936762087296</v>
+        <v>97.44936762087292</v>
       </c>
       <c r="D25" t="n">
-        <v>78.81801954045748</v>
+        <v>78.81801954045744</v>
       </c>
       <c r="E25" t="n">
-        <v>76.6365091688143</v>
+        <v>76.63650916881426</v>
       </c>
       <c r="F25" t="n">
-        <v>75.62359454517637</v>
+        <v>75.62359454517633</v>
       </c>
       <c r="G25" t="n">
-        <v>96.22541911345175</v>
+        <v>96.22541911345171</v>
       </c>
       <c r="H25" t="n">
-        <v>74.93146068084295</v>
+        <v>74.9314606808429</v>
       </c>
       <c r="I25" t="n">
-        <v>26.46668339432086</v>
+        <v>26.46668339432083</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.00270089187751</v>
+        <v>19.00270089187748</v>
       </c>
       <c r="S25" t="n">
         <v>119.9204111699233</v>
@@ -2530,7 +2530,7 @@
         <v>149.7389524904493</v>
       </c>
       <c r="U25" t="n">
-        <v>216.4142246005223</v>
+        <v>216.4142246005222</v>
       </c>
       <c r="V25" t="n">
         <v>182.3401898460731</v>
@@ -2539,7 +2539,7 @@
         <v>216.7255448588361</v>
       </c>
       <c r="X25" t="n">
-        <v>155.9122019112823</v>
+        <v>155.9122019112822</v>
       </c>
       <c r="Y25" t="n">
         <v>148.7871998743399</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.19627083145981</v>
+        <v>62.19627083145984</v>
       </c>
       <c r="T26" t="n">
         <v>157.0469646765665</v>
@@ -2652,7 +2652,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I27" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.9896235645386</v>
       </c>
       <c r="C28" t="n">
-        <v>120.4044644812291</v>
+        <v>120.4044644812292</v>
       </c>
       <c r="D28" t="n">
         <v>101.7731164008137</v>
       </c>
       <c r="E28" t="n">
-        <v>99.59160602917048</v>
+        <v>99.59160602917049</v>
       </c>
       <c r="F28" t="n">
-        <v>98.57869140553255</v>
+        <v>98.57869140553257</v>
       </c>
       <c r="G28" t="n">
         <v>119.1805159738079</v>
       </c>
       <c r="H28" t="n">
-        <v>97.88655754119911</v>
+        <v>97.88655754119914</v>
       </c>
       <c r="I28" t="n">
-        <v>49.42178025467705</v>
+        <v>49.42178025467707</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95779775223369</v>
+        <v>41.95779775223372</v>
       </c>
       <c r="S28" t="n">
-        <v>142.8755080302794</v>
+        <v>142.8755080302795</v>
       </c>
       <c r="T28" t="n">
         <v>172.6940493508055</v>
       </c>
       <c r="U28" t="n">
-        <v>239.3693214608784</v>
+        <v>239.3693214608785</v>
       </c>
       <c r="V28" t="n">
         <v>205.2952867064293</v>
@@ -2776,7 +2776,7 @@
         <v>239.6806417191923</v>
       </c>
       <c r="X28" t="n">
-        <v>178.8672987716384</v>
+        <v>178.8672987716385</v>
       </c>
       <c r="Y28" t="n">
         <v>171.7422967346961</v>
@@ -2792,22 +2792,22 @@
         <v>335.8914850460819</v>
       </c>
       <c r="C29" t="n">
-        <v>318.4305351536089</v>
+        <v>318.4305351536088</v>
       </c>
       <c r="D29" t="n">
-        <v>307.8406850032843</v>
+        <v>307.8406850032842</v>
       </c>
       <c r="E29" t="n">
         <v>335.0880134548631</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0336891243128</v>
+        <v>360.0336891243127</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0728244682296</v>
+        <v>364.0728244682295</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6983832146817</v>
+        <v>247.6983832146816</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.19627083145983</v>
+        <v>62.19627083145978</v>
       </c>
       <c r="T29" t="n">
         <v>157.0469646765665</v>
       </c>
       <c r="U29" t="n">
-        <v>204.1522917760773</v>
+        <v>204.1522917760772</v>
       </c>
       <c r="V29" t="n">
-        <v>280.9099018527363</v>
+        <v>280.9099018527362</v>
       </c>
       <c r="W29" t="n">
-        <v>302.3986121000144</v>
+        <v>302.3986121000143</v>
       </c>
       <c r="X29" t="n">
-        <v>322.8887440610704</v>
+        <v>322.8887440610703</v>
       </c>
       <c r="Y29" t="n">
         <v>339.3955820386549</v>
@@ -2889,7 +2889,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I30" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.9896235645386</v>
       </c>
       <c r="C31" t="n">
-        <v>120.4044644812292</v>
+        <v>120.4044644812291</v>
       </c>
       <c r="D31" t="n">
-        <v>101.7731164008137</v>
+        <v>101.7731164008136</v>
       </c>
       <c r="E31" t="n">
-        <v>99.59160602917049</v>
+        <v>99.59160602917044</v>
       </c>
       <c r="F31" t="n">
-        <v>98.57869140553257</v>
+        <v>98.57869140553251</v>
       </c>
       <c r="G31" t="n">
         <v>119.1805159738079</v>
       </c>
       <c r="H31" t="n">
-        <v>97.88655754119912</v>
+        <v>97.88655754119932</v>
       </c>
       <c r="I31" t="n">
-        <v>49.42178025467707</v>
+        <v>49.42178025467701</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95779775223371</v>
+        <v>41.95779775223366</v>
       </c>
       <c r="S31" t="n">
-        <v>142.8755080302795</v>
+        <v>142.8755080302794</v>
       </c>
       <c r="T31" t="n">
-        <v>172.6940493508055</v>
+        <v>172.6940493508054</v>
       </c>
       <c r="U31" t="n">
-        <v>239.3693214608785</v>
+        <v>239.3693214608784</v>
       </c>
       <c r="V31" t="n">
         <v>205.2952867064293</v>
@@ -3013,7 +3013,7 @@
         <v>239.6806417191923</v>
       </c>
       <c r="X31" t="n">
-        <v>178.8672987716385</v>
+        <v>178.8672987716384</v>
       </c>
       <c r="Y31" t="n">
         <v>171.7422967346961</v>
@@ -3029,19 +3029,19 @@
         <v>335.8914850460819</v>
       </c>
       <c r="C32" t="n">
-        <v>318.4305351536089</v>
+        <v>318.4305351536088</v>
       </c>
       <c r="D32" t="n">
-        <v>307.8406850032843</v>
+        <v>307.8406850032842</v>
       </c>
       <c r="E32" t="n">
         <v>335.0880134548631</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0336891243128</v>
+        <v>360.0336891243127</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0728244682296</v>
+        <v>364.0728244682295</v>
       </c>
       <c r="H32" t="n">
         <v>247.6983832146817</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.19627083145983</v>
+        <v>62.19627083145981</v>
       </c>
       <c r="T32" t="n">
         <v>157.0469646765665</v>
       </c>
       <c r="U32" t="n">
-        <v>204.1522917760773</v>
+        <v>204.1522917760772</v>
       </c>
       <c r="V32" t="n">
-        <v>280.9099018527363</v>
+        <v>280.9099018527362</v>
       </c>
       <c r="W32" t="n">
-        <v>302.3986121000144</v>
+        <v>302.3986121000143</v>
       </c>
       <c r="X32" t="n">
-        <v>322.8887440610704</v>
+        <v>322.8887440610703</v>
       </c>
       <c r="Y32" t="n">
         <v>339.3955820386549</v>
@@ -3126,7 +3126,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I33" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.9896235645386</v>
       </c>
       <c r="C34" t="n">
-        <v>120.4044644812292</v>
+        <v>120.4044644812291</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7731164008137</v>
+        <v>101.7731164008136</v>
       </c>
       <c r="E34" t="n">
-        <v>99.59160602917049</v>
+        <v>99.59160602917046</v>
       </c>
       <c r="F34" t="n">
-        <v>98.57869140553257</v>
+        <v>98.57869140553254</v>
       </c>
       <c r="G34" t="n">
         <v>119.1805159738079</v>
       </c>
       <c r="H34" t="n">
-        <v>97.88655754119912</v>
+        <v>97.88655754119911</v>
       </c>
       <c r="I34" t="n">
-        <v>49.42178025467707</v>
+        <v>49.42178025467704</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95779775223371</v>
+        <v>41.95779775223369</v>
       </c>
       <c r="S34" t="n">
         <v>142.8755080302795</v>
@@ -3241,7 +3241,7 @@
         <v>172.6940493508055</v>
       </c>
       <c r="U34" t="n">
-        <v>239.3693214608785</v>
+        <v>239.3693214608784</v>
       </c>
       <c r="V34" t="n">
         <v>205.2952867064293</v>
@@ -3250,7 +3250,7 @@
         <v>239.6806417191923</v>
       </c>
       <c r="X34" t="n">
-        <v>178.8672987716385</v>
+        <v>178.8672987716384</v>
       </c>
       <c r="Y34" t="n">
         <v>171.7422967346961</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.19627083145981</v>
+        <v>62.19627083145984</v>
       </c>
       <c r="T35" t="n">
         <v>157.0469646765665</v>
@@ -3363,7 +3363,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I36" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.9896235645386</v>
       </c>
       <c r="C37" t="n">
-        <v>120.4044644812291</v>
+        <v>120.4044644812292</v>
       </c>
       <c r="D37" t="n">
         <v>101.7731164008137</v>
       </c>
       <c r="E37" t="n">
-        <v>99.59160602917048</v>
+        <v>99.59160602917049</v>
       </c>
       <c r="F37" t="n">
-        <v>98.57869140553255</v>
+        <v>98.57869140553257</v>
       </c>
       <c r="G37" t="n">
         <v>119.1805159738079</v>
       </c>
       <c r="H37" t="n">
-        <v>97.88655754119911</v>
+        <v>97.88655754119914</v>
       </c>
       <c r="I37" t="n">
-        <v>49.42178025467705</v>
+        <v>49.42178025467707</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95779775223369</v>
+        <v>41.95779775223372</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8755080302794</v>
+        <v>142.8755080302795</v>
       </c>
       <c r="T37" t="n">
         <v>172.6940493508055</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3693214608784</v>
+        <v>239.3693214608785</v>
       </c>
       <c r="V37" t="n">
         <v>205.2952867064293</v>
@@ -3487,7 +3487,7 @@
         <v>239.6806417191923</v>
       </c>
       <c r="X37" t="n">
-        <v>178.8672987716384</v>
+        <v>178.8672987716385</v>
       </c>
       <c r="Y37" t="n">
         <v>171.7422967346961</v>
@@ -3503,19 +3503,19 @@
         <v>335.8914850460819</v>
       </c>
       <c r="C38" t="n">
-        <v>318.4305351536089</v>
+        <v>318.4305351536088</v>
       </c>
       <c r="D38" t="n">
-        <v>307.8406850032843</v>
+        <v>307.8406850032842</v>
       </c>
       <c r="E38" t="n">
         <v>335.0880134548631</v>
       </c>
       <c r="F38" t="n">
-        <v>360.0336891243128</v>
+        <v>360.0336891243127</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0728244682296</v>
+        <v>364.0728244682295</v>
       </c>
       <c r="H38" t="n">
         <v>247.6983832146817</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.19627083145985</v>
+        <v>62.19627083145984</v>
       </c>
       <c r="T38" t="n">
-        <v>157.0469646765666</v>
+        <v>157.0469646765665</v>
       </c>
       <c r="U38" t="n">
         <v>204.1522917760773</v>
       </c>
       <c r="V38" t="n">
-        <v>280.9099018527363</v>
+        <v>280.9099018527362</v>
       </c>
       <c r="W38" t="n">
-        <v>302.3986121000144</v>
+        <v>302.3986121000143</v>
       </c>
       <c r="X38" t="n">
-        <v>322.8887440610704</v>
+        <v>322.8887440610703</v>
       </c>
       <c r="Y38" t="n">
         <v>339.3955820386549</v>
@@ -3600,7 +3600,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I39" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.7731164008137</v>
       </c>
       <c r="E40" t="n">
-        <v>99.59160602917052</v>
+        <v>99.59160602917049</v>
       </c>
       <c r="F40" t="n">
-        <v>98.5786914055326</v>
+        <v>98.57869140553257</v>
       </c>
       <c r="G40" t="n">
-        <v>119.180515973808</v>
+        <v>119.1805159738079</v>
       </c>
       <c r="H40" t="n">
-        <v>97.88655754119915</v>
+        <v>97.88655754119914</v>
       </c>
       <c r="I40" t="n">
-        <v>49.42178025467708</v>
+        <v>49.42178025467707</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95779775223373</v>
+        <v>41.95779775223372</v>
       </c>
       <c r="S40" t="n">
         <v>142.8755080302795</v>
@@ -3718,10 +3718,10 @@
         <v>239.3693214608785</v>
       </c>
       <c r="V40" t="n">
-        <v>205.2952867064294</v>
+        <v>205.2952867064293</v>
       </c>
       <c r="W40" t="n">
-        <v>239.6806417191924</v>
+        <v>239.6806417191923</v>
       </c>
       <c r="X40" t="n">
         <v>178.8672987716385</v>
@@ -3740,7 +3740,7 @@
         <v>335.8914850460819</v>
       </c>
       <c r="C41" t="n">
-        <v>318.4305351536089</v>
+        <v>318.4305351536088</v>
       </c>
       <c r="D41" t="n">
         <v>307.8406850032843</v>
@@ -3791,13 +3791,13 @@
         <v>62.19627083145984</v>
       </c>
       <c r="T41" t="n">
-        <v>157.0469646765666</v>
+        <v>157.0469646765665</v>
       </c>
       <c r="U41" t="n">
         <v>204.1522917760773</v>
       </c>
       <c r="V41" t="n">
-        <v>280.9099018527363</v>
+        <v>280.9099018527362</v>
       </c>
       <c r="W41" t="n">
         <v>302.3986121000144</v>
@@ -3837,7 +3837,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I42" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>101.7731164008137</v>
       </c>
       <c r="E43" t="n">
-        <v>99.59160602917051</v>
+        <v>99.59160602917049</v>
       </c>
       <c r="F43" t="n">
-        <v>98.57869140553258</v>
+        <v>98.57869140553257</v>
       </c>
       <c r="G43" t="n">
         <v>119.1805159738079</v>
       </c>
       <c r="H43" t="n">
-        <v>97.88655754119914</v>
+        <v>97.88655754119912</v>
       </c>
       <c r="I43" t="n">
-        <v>49.42178025467707</v>
+        <v>49.42178025467706</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>239.3693214608785</v>
       </c>
       <c r="V43" t="n">
-        <v>205.2952867064294</v>
+        <v>205.2952867064293</v>
       </c>
       <c r="W43" t="n">
-        <v>239.6806417191924</v>
+        <v>239.6806417191923</v>
       </c>
       <c r="X43" t="n">
         <v>178.8672987716385</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.19627083145981</v>
+        <v>62.1962708314598</v>
       </c>
       <c r="T44" t="n">
         <v>157.0469646765665</v>
@@ -4074,7 +4074,7 @@
         <v>89.56305682733334</v>
       </c>
       <c r="I45" t="n">
-        <v>18.69665740148479</v>
+        <v>18.6966574014848</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.7731164008136</v>
       </c>
       <c r="E46" t="n">
-        <v>99.59160602917046</v>
+        <v>99.59160602917045</v>
       </c>
       <c r="F46" t="n">
-        <v>98.57869140553254</v>
+        <v>98.57869140553252</v>
       </c>
       <c r="G46" t="n">
         <v>119.1805159738079</v>
       </c>
       <c r="H46" t="n">
-        <v>97.8865575411991</v>
+        <v>97.88655754119908</v>
       </c>
       <c r="I46" t="n">
-        <v>49.42178025467704</v>
+        <v>49.42178025467702</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95779775223368</v>
+        <v>41.95779775223367</v>
       </c>
       <c r="S46" t="n">
         <v>142.8755080302794</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1243.237422985115</v>
+        <v>1162.121239310241</v>
       </c>
       <c r="C11" t="n">
-        <v>1176.635822296954</v>
+        <v>1162.121239310241</v>
       </c>
       <c r="D11" t="n">
-        <v>847.3939677414518</v>
+        <v>1090.688370319123</v>
       </c>
       <c r="E11" t="n">
-        <v>847.3939677414518</v>
+        <v>733.9239617721278</v>
       </c>
       <c r="F11" t="n">
-        <v>465.4319070030929</v>
+        <v>733.9239617721278</v>
       </c>
       <c r="G11" t="n">
-        <v>79.38991157390899</v>
+        <v>347.8819663429438</v>
       </c>
       <c r="H11" t="n">
-        <v>79.38991157390899</v>
+        <v>79.3899115739091</v>
       </c>
       <c r="I11" t="n">
         <v>66.67171489602228</v>
@@ -5060,31 +5060,31 @@
         <v>3025.175650030316</v>
       </c>
       <c r="Q11" t="n">
-        <v>3274.161684087746</v>
+        <v>3274.161684087747</v>
       </c>
       <c r="R11" t="n">
         <v>3333.585744801114</v>
       </c>
       <c r="S11" t="n">
-        <v>3333.585744801114</v>
+        <v>3252.469561126243</v>
       </c>
       <c r="T11" t="n">
-        <v>3156.660779464519</v>
+        <v>3075.544595789648</v>
       </c>
       <c r="U11" t="n">
-        <v>2932.15467564357</v>
+        <v>2851.038491968697</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.115632351248</v>
+        <v>2548.999448676375</v>
       </c>
       <c r="W11" t="n">
-        <v>2306.370821132382</v>
+        <v>2225.254637457509</v>
       </c>
       <c r="X11" t="n">
-        <v>1961.928906922551</v>
+        <v>1880.812723247678</v>
       </c>
       <c r="Y11" t="n">
-        <v>1600.813418997988</v>
+        <v>1519.697235323115</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>160.6765054628592</v>
       </c>
       <c r="K12" t="n">
-        <v>399.500490129255</v>
+        <v>393.6934398845546</v>
       </c>
       <c r="L12" t="n">
-        <v>766.9513513786573</v>
+        <v>761.1443011339568</v>
       </c>
       <c r="M12" t="n">
-        <v>1215.106043091535</v>
+        <v>1209.298992846835</v>
       </c>
       <c r="N12" t="n">
-        <v>1683.797405385386</v>
+        <v>1683.723650639196</v>
       </c>
       <c r="O12" t="n">
-        <v>2095.583485686486</v>
+        <v>2095.509730940296</v>
       </c>
       <c r="P12" t="n">
-        <v>2406.745052586964</v>
+        <v>2406.671297840774</v>
       </c>
       <c r="Q12" t="n">
-        <v>2564.829123273919</v>
+        <v>2564.755368527729</v>
       </c>
       <c r="R12" t="n">
         <v>2564.829123273919</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712.4787357050816</v>
+        <v>452.3998746267543</v>
       </c>
       <c r="C13" t="n">
-        <v>572.5663968284233</v>
+        <v>312.487535750096</v>
       </c>
       <c r="D13" t="n">
-        <v>451.4736014673363</v>
+        <v>191.3947403890087</v>
       </c>
       <c r="E13" t="n">
-        <v>332.5843519361918</v>
+        <v>72.50549085786396</v>
       </c>
       <c r="F13" t="n">
-        <v>214.7182484895301</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="G13" t="n">
-        <v>183.8386932271957</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="H13" t="n">
         <v>66.67171489602228</v>
@@ -5200,49 +5200,49 @@
         <v>140.4460930954239</v>
       </c>
       <c r="K13" t="n">
-        <v>373.2172061117698</v>
+        <v>373.2172061117695</v>
       </c>
       <c r="L13" t="n">
-        <v>718.6553633188848</v>
+        <v>718.6553633188846</v>
       </c>
       <c r="M13" t="n">
-        <v>1091.714255955294</v>
+        <v>1091.714255955293</v>
       </c>
       <c r="N13" t="n">
-        <v>1462.013647083757</v>
+        <v>1462.013647083756</v>
       </c>
       <c r="O13" t="n">
-        <v>1790.200309428411</v>
+        <v>1790.20030942841</v>
       </c>
       <c r="P13" t="n">
-        <v>2051.605584538987</v>
+        <v>2051.605584538986</v>
       </c>
       <c r="Q13" t="n">
-        <v>2157.905514172873</v>
+        <v>2157.905514172871</v>
       </c>
       <c r="R13" t="n">
-        <v>2097.23223259823</v>
+        <v>2097.232232598229</v>
       </c>
       <c r="S13" t="n">
-        <v>1934.621869934653</v>
+        <v>1934.621869934651</v>
       </c>
       <c r="T13" t="n">
-        <v>1741.891768563473</v>
+        <v>1741.891768563471</v>
       </c>
       <c r="U13" t="n">
-        <v>1741.891768563473</v>
+        <v>1481.812907485147</v>
       </c>
       <c r="V13" t="n">
-        <v>1516.231124408835</v>
+        <v>1256.152263330508</v>
       </c>
       <c r="W13" t="n">
-        <v>1255.837798423123</v>
+        <v>995.758937344796</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.872091576354</v>
+        <v>796.7932304980271</v>
       </c>
       <c r="Y13" t="n">
-        <v>865.1033564840726</v>
+        <v>605.0244954057455</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1743.907199540575</v>
+        <v>1523.236727234806</v>
       </c>
       <c r="C14" t="n">
-        <v>1403.968526651412</v>
+        <v>1183.298054345642</v>
       </c>
       <c r="D14" t="n">
-        <v>1074.72667209591</v>
+        <v>1090.688370319124</v>
       </c>
       <c r="E14" t="n">
-        <v>717.9622635489131</v>
+        <v>733.923961772128</v>
       </c>
       <c r="F14" t="n">
-        <v>717.9622635489131</v>
+        <v>733.923961772128</v>
       </c>
       <c r="G14" t="n">
-        <v>331.9202681197293</v>
+        <v>347.8819663429439</v>
       </c>
       <c r="H14" t="n">
-        <v>66.67171489602227</v>
+        <v>79.38991157390916</v>
       </c>
       <c r="I14" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J14" t="n">
-        <v>256.1007532483694</v>
+        <v>256.1007532483691</v>
       </c>
       <c r="K14" t="n">
-        <v>590.7442955720189</v>
+        <v>590.744295572019</v>
       </c>
       <c r="L14" t="n">
         <v>1042.800962888636</v>
@@ -5300,28 +5300,28 @@
         <v>3274.161684087746</v>
       </c>
       <c r="R14" t="n">
-        <v>3333.585744801113</v>
+        <v>3333.585744801114</v>
       </c>
       <c r="S14" t="n">
-        <v>3333.585744801113</v>
+        <v>3252.469561126243</v>
       </c>
       <c r="T14" t="n">
-        <v>3333.585744801113</v>
+        <v>3075.544595789647</v>
       </c>
       <c r="U14" t="n">
-        <v>3109.079640980164</v>
+        <v>2851.038491968698</v>
       </c>
       <c r="V14" t="n">
-        <v>2807.040597687842</v>
+        <v>2548.999448676376</v>
       </c>
       <c r="W14" t="n">
-        <v>2807.040597687842</v>
+        <v>2225.25463745751</v>
       </c>
       <c r="X14" t="n">
-        <v>2462.598683478011</v>
+        <v>1880.812723247679</v>
       </c>
       <c r="Y14" t="n">
-        <v>2101.483195553448</v>
+        <v>1880.812723247679</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.0249615917982</v>
       </c>
       <c r="H15" t="n">
-        <v>85.55722742277457</v>
+        <v>85.5572274227746</v>
       </c>
       <c r="I15" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J15" t="n">
         <v>160.6765054628592</v>
       </c>
       <c r="K15" t="n">
-        <v>399.5004901292551</v>
+        <v>399.500490129255</v>
       </c>
       <c r="L15" t="n">
-        <v>761.2180558801465</v>
+        <v>766.9513513786573</v>
       </c>
       <c r="M15" t="n">
-        <v>1209.372747593025</v>
+        <v>1215.106043091535</v>
       </c>
       <c r="N15" t="n">
-        <v>1683.797405385386</v>
+        <v>1689.530700883896</v>
       </c>
       <c r="O15" t="n">
-        <v>2095.583485686486</v>
+        <v>2101.316781184997</v>
       </c>
       <c r="P15" t="n">
-        <v>2406.745052586964</v>
+        <v>2412.478348085474</v>
       </c>
       <c r="Q15" t="n">
-        <v>2564.829123273919</v>
+        <v>2564.755368527729</v>
       </c>
       <c r="R15" t="n">
         <v>2564.829123273919</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.8201736810199</v>
+        <v>452.399874626753</v>
       </c>
       <c r="C16" t="n">
-        <v>511.8201736810199</v>
+        <v>312.4875357500946</v>
       </c>
       <c r="D16" t="n">
-        <v>390.727378319933</v>
+        <v>312.4875357500946</v>
       </c>
       <c r="E16" t="n">
-        <v>390.727378319933</v>
+        <v>193.5982862189498</v>
       </c>
       <c r="F16" t="n">
-        <v>390.727378319933</v>
+        <v>193.5982862189498</v>
       </c>
       <c r="G16" t="n">
-        <v>252.0513510669325</v>
+        <v>193.5982862189498</v>
       </c>
       <c r="H16" t="n">
-        <v>134.8843727357592</v>
+        <v>76.43130788777623</v>
       </c>
       <c r="I16" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J16" t="n">
-        <v>140.446093095424</v>
+        <v>140.4460930954238</v>
       </c>
       <c r="K16" t="n">
-        <v>373.21720611177</v>
+        <v>373.2172061117696</v>
       </c>
       <c r="L16" t="n">
-        <v>718.6553633188853</v>
+        <v>718.6553633188846</v>
       </c>
       <c r="M16" t="n">
-        <v>1091.714255955294</v>
+        <v>1091.714255955293</v>
       </c>
       <c r="N16" t="n">
-        <v>1462.013647083757</v>
+        <v>1462.013647083756</v>
       </c>
       <c r="O16" t="n">
-        <v>1790.200309428411</v>
+        <v>1790.20030942841</v>
       </c>
       <c r="P16" t="n">
-        <v>2051.605584538987</v>
+        <v>2051.605584538985</v>
       </c>
       <c r="Q16" t="n">
-        <v>2157.905514172874</v>
+        <v>2157.90551417287</v>
       </c>
       <c r="R16" t="n">
-        <v>2156.652531652494</v>
+        <v>2097.232232598228</v>
       </c>
       <c r="S16" t="n">
-        <v>1994.042168988916</v>
+        <v>1934.62186993465</v>
       </c>
       <c r="T16" t="n">
-        <v>1801.312067617736</v>
+        <v>1741.89176856347</v>
       </c>
       <c r="U16" t="n">
-        <v>1541.233206539412</v>
+        <v>1481.812907485146</v>
       </c>
       <c r="V16" t="n">
-        <v>1315.572562384773</v>
+        <v>1256.152263330507</v>
       </c>
       <c r="W16" t="n">
-        <v>1055.179236399061</v>
+        <v>995.7589373447948</v>
       </c>
       <c r="X16" t="n">
-        <v>856.2135295522925</v>
+        <v>796.793230498026</v>
       </c>
       <c r="Y16" t="n">
-        <v>664.4447944600111</v>
+        <v>605.0244954057443</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1592.477736223209</v>
+        <v>1535.677595349527</v>
       </c>
       <c r="C17" t="n">
-        <v>1294.017697543156</v>
+        <v>1237.217556669474</v>
       </c>
       <c r="D17" t="n">
-        <v>1294.017697543156</v>
+        <v>949.454336323082</v>
       </c>
       <c r="E17" t="n">
-        <v>978.73192320527</v>
+        <v>634.1685619851962</v>
       </c>
       <c r="F17" t="n">
-        <v>638.248496676021</v>
+        <v>293.685135455947</v>
       </c>
       <c r="G17" t="n">
-        <v>293.6851354559469</v>
+        <v>293.685135455947</v>
       </c>
       <c r="H17" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="I17" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J17" t="n">
-        <v>256.1007532483688</v>
+        <v>256.1007532483691</v>
       </c>
       <c r="K17" t="n">
-        <v>590.7442955720182</v>
+        <v>590.7442955720185</v>
       </c>
       <c r="L17" t="n">
-        <v>1042.800962888635</v>
+        <v>1042.800962888636</v>
       </c>
       <c r="M17" t="n">
         <v>1577.47054471725</v>
       </c>
       <c r="N17" t="n">
-        <v>2125.405447738522</v>
+        <v>2125.405447738521</v>
       </c>
       <c r="O17" t="n">
         <v>2629.469577809499</v>
@@ -5537,7 +5537,7 @@
         <v>3274.161684087746</v>
       </c>
       <c r="R17" t="n">
-        <v>3333.585744801113</v>
+        <v>3333.585744801114</v>
       </c>
       <c r="S17" t="n">
         <v>3293.948195335352</v>
@@ -5558,7 +5558,7 @@
         <v>2129.684528502338</v>
       </c>
       <c r="Y17" t="n">
-        <v>1810.047674786885</v>
+        <v>1851.774957153291</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.0249615917982</v>
       </c>
       <c r="H18" t="n">
-        <v>85.55722742277457</v>
+        <v>85.5572274227746</v>
       </c>
       <c r="I18" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J18" t="n">
         <v>160.6765054628592</v>
       </c>
       <c r="K18" t="n">
-        <v>399.5004901292551</v>
+        <v>399.500490129255</v>
       </c>
       <c r="L18" t="n">
-        <v>766.9513513786575</v>
+        <v>766.9513513786573</v>
       </c>
       <c r="M18" t="n">
-        <v>1215.106043091536</v>
+        <v>1209.298992846835</v>
       </c>
       <c r="N18" t="n">
-        <v>1689.530700883897</v>
+        <v>1683.723650639196</v>
       </c>
       <c r="O18" t="n">
-        <v>2095.583485686486</v>
+        <v>2095.509730940296</v>
       </c>
       <c r="P18" t="n">
-        <v>2406.745052586964</v>
+        <v>2406.671297840774</v>
       </c>
       <c r="Q18" t="n">
-        <v>2564.829123273919</v>
+        <v>2564.755368527729</v>
       </c>
       <c r="R18" t="n">
         <v>2564.829123273919</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>598.1374260717159</v>
+        <v>598.1374260717149</v>
       </c>
       <c r="C19" t="n">
-        <v>499.7037214041674</v>
+        <v>499.7037214041665</v>
       </c>
       <c r="D19" t="n">
-        <v>420.0895602521902</v>
+        <v>420.0895602521891</v>
       </c>
       <c r="E19" t="n">
-        <v>342.6789449301555</v>
+        <v>342.6789449301546</v>
       </c>
       <c r="F19" t="n">
-        <v>266.2914756926036</v>
+        <v>266.2914756926029</v>
       </c>
       <c r="G19" t="n">
-        <v>169.094082648713</v>
+        <v>169.0940826487123</v>
       </c>
       <c r="H19" t="n">
-        <v>93.4057385266494</v>
+        <v>93.40573852664875</v>
       </c>
       <c r="I19" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J19" t="n">
         <v>111.9998235407952</v>
       </c>
       <c r="K19" t="n">
-        <v>316.3246670025123</v>
+        <v>316.3246670025122</v>
       </c>
       <c r="L19" t="n">
-        <v>633.3165546549988</v>
+        <v>633.3165546549986</v>
       </c>
       <c r="M19" t="n">
-        <v>977.9291777367787</v>
+        <v>977.9291777367785</v>
       </c>
       <c r="N19" t="n">
-        <v>1319.782299310613</v>
+        <v>1319.782299310612</v>
       </c>
       <c r="O19" t="n">
-        <v>1619.522692100639</v>
+        <v>1619.522692100638</v>
       </c>
       <c r="P19" t="n">
-        <v>1852.481697656586</v>
+        <v>1852.481697656585</v>
       </c>
       <c r="Q19" t="n">
-        <v>1930.335357735843</v>
+        <v>1930.335357735842</v>
       </c>
       <c r="R19" t="n">
-        <v>1911.140710370311</v>
+        <v>1911.14071037031</v>
       </c>
       <c r="S19" t="n">
-        <v>1790.008981915843</v>
+        <v>1790.008981915842</v>
       </c>
       <c r="T19" t="n">
-        <v>1638.757514753773</v>
+        <v>1638.757514753772</v>
       </c>
       <c r="U19" t="n">
-        <v>1420.157287884558</v>
+        <v>1420.157287884557</v>
       </c>
       <c r="V19" t="n">
-        <v>1235.97527793903</v>
+        <v>1235.975277939029</v>
       </c>
       <c r="W19" t="n">
-        <v>1017.060586162428</v>
+        <v>1017.060586162427</v>
       </c>
       <c r="X19" t="n">
-        <v>859.5735135247687</v>
+        <v>859.5735135247678</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.2834126415971</v>
+        <v>709.2834126415962</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1592.47773622321</v>
+        <v>1493.950312983123</v>
       </c>
       <c r="C20" t="n">
-        <v>1294.017697543157</v>
+        <v>1195.490274303069</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.017697543157</v>
+        <v>907.7270539566772</v>
       </c>
       <c r="E20" t="n">
-        <v>978.7319232052707</v>
+        <v>592.4412796187911</v>
       </c>
       <c r="F20" t="n">
-        <v>638.2484966760217</v>
+        <v>592.4412796187911</v>
       </c>
       <c r="G20" t="n">
         <v>293.685135455947</v>
       </c>
       <c r="H20" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="I20" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J20" t="n">
-        <v>256.1007532483694</v>
+        <v>256.1007532483693</v>
       </c>
       <c r="K20" t="n">
-        <v>590.7442955720188</v>
+        <v>590.7442955720187</v>
       </c>
       <c r="L20" t="n">
         <v>1042.800962888636</v>
@@ -5774,28 +5774,28 @@
         <v>3274.161684087746</v>
       </c>
       <c r="R20" t="n">
-        <v>3333.585744801113</v>
+        <v>3333.585744801114</v>
       </c>
       <c r="S20" t="n">
-        <v>3293.948195335352</v>
+        <v>3293.948195335353</v>
       </c>
       <c r="T20" t="n">
-        <v>3257.029287447955</v>
+        <v>3158.501864207868</v>
       </c>
       <c r="U20" t="n">
-        <v>3074.001817836115</v>
+        <v>2975.474394596028</v>
       </c>
       <c r="V20" t="n">
-        <v>2813.441408752903</v>
+        <v>2714.913985512816</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.175231743147</v>
+        <v>2432.64780850306</v>
       </c>
       <c r="X20" t="n">
-        <v>2228.211951742426</v>
+        <v>2129.684528502339</v>
       </c>
       <c r="Y20" t="n">
-        <v>1908.575098026973</v>
+        <v>1810.047674786886</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>176.0249615917982</v>
       </c>
       <c r="H21" t="n">
-        <v>85.55722742277457</v>
+        <v>85.5572274227746</v>
       </c>
       <c r="I21" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J21" t="n">
-        <v>154.9432099643482</v>
+        <v>160.6765054628592</v>
       </c>
       <c r="K21" t="n">
-        <v>393.7671946307441</v>
+        <v>399.500490129255</v>
       </c>
       <c r="L21" t="n">
-        <v>761.2180558801465</v>
+        <v>761.2180558801467</v>
       </c>
       <c r="M21" t="n">
         <v>1209.372747593025</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>598.1374260717157</v>
+        <v>598.1374260717156</v>
       </c>
       <c r="C22" t="n">
-        <v>499.7037214041673</v>
+        <v>499.7037214041671</v>
       </c>
       <c r="D22" t="n">
-        <v>420.08956025219</v>
+        <v>420.0895602521899</v>
       </c>
       <c r="E22" t="n">
         <v>342.6789449301554</v>
@@ -5899,25 +5899,25 @@
         <v>266.2914756926035</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0940826487128</v>
+        <v>169.0940826487129</v>
       </c>
       <c r="H22" t="n">
         <v>93.40573852664939</v>
       </c>
       <c r="I22" t="n">
-        <v>66.67171489602227</v>
+        <v>66.67171489602228</v>
       </c>
       <c r="J22" t="n">
         <v>111.9998235407952</v>
       </c>
       <c r="K22" t="n">
-        <v>316.3246670025121</v>
+        <v>316.3246670025122</v>
       </c>
       <c r="L22" t="n">
-        <v>633.3165546549985</v>
+        <v>633.3165546549988</v>
       </c>
       <c r="M22" t="n">
-        <v>977.9291777367785</v>
+        <v>977.9291777367786</v>
       </c>
       <c r="N22" t="n">
         <v>1319.782299310612</v>
@@ -5941,7 +5941,7 @@
         <v>1638.757514753772</v>
       </c>
       <c r="U22" t="n">
-        <v>1420.157287884558</v>
+        <v>1420.157287884557</v>
       </c>
       <c r="V22" t="n">
         <v>1235.975277939029</v>
@@ -5950,10 +5950,10 @@
         <v>1017.060586162427</v>
       </c>
       <c r="X22" t="n">
-        <v>859.5735135247685</v>
+        <v>859.5735135247684</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.2834126415969</v>
+        <v>709.2834126415968</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1888.124439091775</v>
+        <v>1888.124439091774</v>
       </c>
       <c r="C23" t="n">
         <v>1589.664400411721</v>
@@ -5978,19 +5978,19 @@
         <v>646.1319791981946</v>
       </c>
       <c r="G23" t="n">
-        <v>301.5686179781201</v>
+        <v>301.56861797812</v>
       </c>
       <c r="H23" t="n">
-        <v>74.55519741819533</v>
+        <v>74.55519741819532</v>
       </c>
       <c r="I23" t="n">
-        <v>74.55519741819533</v>
+        <v>74.55519741819532</v>
       </c>
       <c r="J23" t="n">
-        <v>263.9842357705425</v>
+        <v>263.9842357705423</v>
       </c>
       <c r="K23" t="n">
-        <v>598.6277780941919</v>
+        <v>598.6277780941916</v>
       </c>
       <c r="L23" t="n">
         <v>1050.684445410809</v>
@@ -6005,19 +6005,19 @@
         <v>3023.643703918152</v>
       </c>
       <c r="P23" t="n">
-        <v>3419.349776138968</v>
+        <v>3419.349776138967</v>
       </c>
       <c r="Q23" t="n">
-        <v>3668.335810196399</v>
+        <v>3668.335810196398</v>
       </c>
       <c r="R23" t="n">
-        <v>3727.759870909767</v>
+        <v>3727.759870909766</v>
       </c>
       <c r="S23" t="n">
         <v>3688.122321444005</v>
       </c>
       <c r="T23" t="n">
-        <v>3552.67599031652</v>
+        <v>3552.675990316519</v>
       </c>
       <c r="U23" t="n">
         <v>3369.64852070468</v>
@@ -6063,31 +6063,31 @@
         <v>93.44070994494764</v>
       </c>
       <c r="I24" t="n">
-        <v>74.55519741819533</v>
+        <v>74.55519741819532</v>
       </c>
       <c r="J24" t="n">
-        <v>162.8266924865211</v>
+        <v>168.5599879850322</v>
       </c>
       <c r="K24" t="n">
-        <v>401.6506771529171</v>
+        <v>407.3839726514281</v>
       </c>
       <c r="L24" t="n">
-        <v>769.1015384023194</v>
+        <v>774.8348339008303</v>
       </c>
       <c r="M24" t="n">
-        <v>1217.256230115198</v>
+        <v>1217.182475369008</v>
       </c>
       <c r="N24" t="n">
-        <v>1691.680887907559</v>
+        <v>1691.607133161369</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.466968208659</v>
+        <v>2103.393213462469</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.628535109136</v>
+        <v>2414.554780362947</v>
       </c>
       <c r="Q24" t="n">
-        <v>2572.712605796092</v>
+        <v>2572.638851049902</v>
       </c>
       <c r="R24" t="n">
         <v>2572.712605796092</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>606.020908593889</v>
+        <v>606.0209085938886</v>
       </c>
       <c r="C25" t="n">
-        <v>507.5872039263405</v>
+        <v>507.5872039263402</v>
       </c>
       <c r="D25" t="n">
-        <v>427.9730427743633</v>
+        <v>427.973042774363</v>
       </c>
       <c r="E25" t="n">
-        <v>350.5624274523286</v>
+        <v>350.5624274523284</v>
       </c>
       <c r="F25" t="n">
-        <v>274.1749582147767</v>
+        <v>274.1749582147766</v>
       </c>
       <c r="G25" t="n">
-        <v>176.9775651708861</v>
+        <v>176.977565170886</v>
       </c>
       <c r="H25" t="n">
-        <v>101.2892210488225</v>
+        <v>101.2892210488224</v>
       </c>
       <c r="I25" t="n">
-        <v>74.55519741819533</v>
+        <v>74.55519741819532</v>
       </c>
       <c r="J25" t="n">
         <v>119.8833060629683</v>
       </c>
       <c r="K25" t="n">
-        <v>324.2081495246854</v>
+        <v>324.2081495246853</v>
       </c>
       <c r="L25" t="n">
-        <v>641.2000371771719</v>
+        <v>641.2000371771717</v>
       </c>
       <c r="M25" t="n">
-        <v>985.8126602589518</v>
+        <v>985.8126602589516</v>
       </c>
       <c r="N25" t="n">
-        <v>1327.665781832786</v>
+        <v>1327.665781832785</v>
       </c>
       <c r="O25" t="n">
-        <v>1627.406174622812</v>
+        <v>1627.406174622811</v>
       </c>
       <c r="P25" t="n">
         <v>1860.365180178758</v>
       </c>
       <c r="Q25" t="n">
-        <v>1938.218840258017</v>
+        <v>1938.218840258016</v>
       </c>
       <c r="R25" t="n">
-        <v>1919.024192892484</v>
+        <v>1919.024192892483</v>
       </c>
       <c r="S25" t="n">
-        <v>1797.892464438016</v>
+        <v>1797.892464438015</v>
       </c>
       <c r="T25" t="n">
-        <v>1646.640997275946</v>
+        <v>1646.640997275945</v>
       </c>
       <c r="U25" t="n">
-        <v>1428.040770406732</v>
+        <v>1428.040770406731</v>
       </c>
       <c r="V25" t="n">
         <v>1243.858760461203</v>
       </c>
       <c r="W25" t="n">
-        <v>1024.944068684601</v>
+        <v>1024.9440686846</v>
       </c>
       <c r="X25" t="n">
-        <v>867.4569960469419</v>
+        <v>867.4569960469414</v>
       </c>
       <c r="Y25" t="n">
-        <v>717.1668951637703</v>
+        <v>717.1668951637698</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1712.22408061853</v>
       </c>
       <c r="D26" t="n">
-        <v>1401.273893746526</v>
+        <v>1401.273893746525</v>
       </c>
       <c r="E26" t="n">
         <v>1062.801152883027</v>
       </c>
       <c r="F26" t="n">
-        <v>699.130759828166</v>
+        <v>699.1307598281655</v>
       </c>
       <c r="G26" t="n">
         <v>331.3804320824788</v>
@@ -6224,25 +6224,25 @@
         <v>81.1800449969417</v>
       </c>
       <c r="J26" t="n">
-        <v>438.0147323696419</v>
+        <v>270.6090833492888</v>
       </c>
       <c r="K26" t="n">
-        <v>787.3882387749165</v>
+        <v>605.2526256729382</v>
       </c>
       <c r="L26" t="n">
-        <v>1239.444906091534</v>
+        <v>1470.793895394501</v>
       </c>
       <c r="M26" t="n">
-        <v>1774.114487920148</v>
+        <v>2005.463477223115</v>
       </c>
       <c r="N26" t="n">
-        <v>2322.04939094142</v>
+        <v>2553.398380244387</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.113521012398</v>
+        <v>3057.462510315365</v>
       </c>
       <c r="P26" t="n">
-        <v>3540.400314322981</v>
+        <v>3750.592155076287</v>
       </c>
       <c r="Q26" t="n">
         <v>3999.578189133718</v>
@@ -6251,7 +6251,7 @@
         <v>4059.002249847085</v>
       </c>
       <c r="S26" t="n">
-        <v>3996.177733855711</v>
+        <v>3996.177733855712</v>
       </c>
       <c r="T26" t="n">
         <v>3837.544436202614</v>
@@ -6306,25 +6306,25 @@
         <v>175.1848355637786</v>
       </c>
       <c r="K27" t="n">
-        <v>414.0088202301746</v>
+        <v>414.0088202301745</v>
       </c>
       <c r="L27" t="n">
-        <v>775.726385981066</v>
+        <v>775.6526312348763</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.881077693944</v>
+        <v>1223.807322947755</v>
       </c>
       <c r="N27" t="n">
-        <v>1698.305735486305</v>
+        <v>1698.231980740116</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.091815787406</v>
+        <v>2110.018061041216</v>
       </c>
       <c r="P27" t="n">
-        <v>2421.253382687883</v>
+        <v>2421.179627941693</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.337453374838</v>
+        <v>2579.263698628648</v>
       </c>
       <c r="R27" t="n">
         <v>2579.337453374838</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.9545218519214</v>
+        <v>774.954521851921</v>
       </c>
       <c r="C28" t="n">
-        <v>653.3338506587606</v>
+        <v>653.3338506587602</v>
       </c>
       <c r="D28" t="n">
-        <v>550.5327229811711</v>
+        <v>550.5327229811707</v>
       </c>
       <c r="E28" t="n">
-        <v>449.9351411335242</v>
+        <v>449.9351411335237</v>
       </c>
       <c r="F28" t="n">
-        <v>350.3607053703599</v>
+        <v>350.3607053703595</v>
       </c>
       <c r="G28" t="n">
-        <v>229.976345800857</v>
+        <v>229.9763458008565</v>
       </c>
       <c r="H28" t="n">
-        <v>131.1010351531812</v>
+        <v>131.1010351531809</v>
       </c>
       <c r="I28" t="n">
         <v>81.1800449969417</v>
@@ -6388,13 +6388,13 @@
         <v>423.5808632058811</v>
       </c>
       <c r="L28" t="n">
-        <v>786.9466839095924</v>
+        <v>786.9466839095921</v>
       </c>
       <c r="M28" t="n">
         <v>1177.933240042597</v>
       </c>
       <c r="N28" t="n">
-        <v>1566.160294667656</v>
+        <v>1566.160294667655</v>
       </c>
       <c r="O28" t="n">
         <v>1912.274620508906</v>
@@ -6418,16 +6418,16 @@
         <v>1712.909216292825</v>
       </c>
       <c r="V28" t="n">
-        <v>1505.540239821685</v>
+        <v>1505.540239821684</v>
       </c>
       <c r="W28" t="n">
         <v>1263.43858151947</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.764542356199</v>
+        <v>1082.764542356198</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.2874749474149</v>
+        <v>909.2874749474145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,67 +6437,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.871085824195</v>
+        <v>2033.871085824194</v>
       </c>
       <c r="C29" t="n">
-        <v>1712.22408061853</v>
+        <v>1712.224080618528</v>
       </c>
       <c r="D29" t="n">
-        <v>1401.273893746525</v>
+        <v>1401.273893746524</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.801152883027</v>
+        <v>1062.801152883026</v>
       </c>
       <c r="F29" t="n">
-        <v>699.1307598281655</v>
+        <v>699.1307598281647</v>
       </c>
       <c r="G29" t="n">
-        <v>331.3804320824788</v>
+        <v>331.3804320824787</v>
       </c>
       <c r="H29" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="I29" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="J29" t="n">
-        <v>438.0147323696419</v>
+        <v>270.6090833492887</v>
       </c>
       <c r="K29" t="n">
-        <v>772.6582746932913</v>
+        <v>605.2526256729381</v>
       </c>
       <c r="L29" t="n">
-        <v>1224.714942009909</v>
+        <v>1470.793895394501</v>
       </c>
       <c r="M29" t="n">
-        <v>1759.384523838523</v>
+        <v>2005.463477223115</v>
       </c>
       <c r="N29" t="n">
-        <v>2307.319426859795</v>
+        <v>2553.398380244387</v>
       </c>
       <c r="O29" t="n">
-        <v>2811.383556930773</v>
+        <v>3057.462510315365</v>
       </c>
       <c r="P29" t="n">
-        <v>3475.341058648728</v>
+        <v>3750.592155076286</v>
       </c>
       <c r="Q29" t="n">
-        <v>3934.518933459465</v>
+        <v>3999.578189133716</v>
       </c>
       <c r="R29" t="n">
-        <v>4059.002249847085</v>
+        <v>4059.002249847084</v>
       </c>
       <c r="S29" t="n">
-        <v>3996.177733855711</v>
+        <v>3996.17773385571</v>
       </c>
       <c r="T29" t="n">
-        <v>3837.544436202614</v>
+        <v>3837.544436202613</v>
       </c>
       <c r="U29" t="n">
-        <v>3631.330000065162</v>
+        <v>3631.330000065161</v>
       </c>
       <c r="V29" t="n">
-        <v>3347.582624456338</v>
+        <v>3347.582624456337</v>
       </c>
       <c r="W29" t="n">
         <v>3042.129480920969</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.0523067583287</v>
+        <v>956.0523067583284</v>
       </c>
       <c r="C30" t="n">
-        <v>781.5992774772017</v>
+        <v>781.5992774772014</v>
       </c>
       <c r="D30" t="n">
-        <v>632.6648678159504</v>
+        <v>632.6648678159502</v>
       </c>
       <c r="E30" t="n">
-        <v>473.4274128104948</v>
+        <v>473.4274128104947</v>
       </c>
       <c r="F30" t="n">
-        <v>326.8928548373798</v>
+        <v>326.8928548373797</v>
       </c>
       <c r="G30" t="n">
         <v>190.5332916927176</v>
@@ -6537,28 +6537,28 @@
         <v>100.065557523694</v>
       </c>
       <c r="I30" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="J30" t="n">
         <v>175.1848355637786</v>
       </c>
       <c r="K30" t="n">
-        <v>414.0088202301746</v>
+        <v>414.0088202301744</v>
       </c>
       <c r="L30" t="n">
-        <v>781.4596814795769</v>
+        <v>781.4596814795766</v>
       </c>
       <c r="M30" t="n">
-        <v>1229.614373192455</v>
+        <v>1223.881077693944</v>
       </c>
       <c r="N30" t="n">
-        <v>1704.039030984816</v>
+        <v>1698.305735486305</v>
       </c>
       <c r="O30" t="n">
-        <v>2115.825111285917</v>
+        <v>2110.091815787405</v>
       </c>
       <c r="P30" t="n">
-        <v>2426.986678186394</v>
+        <v>2421.253382687883</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.337453374838</v>
@@ -6567,13 +6567,13 @@
         <v>2579.337453374838</v>
       </c>
       <c r="S30" t="n">
-        <v>2449.965265514012</v>
+        <v>2449.965265514011</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.336521875549</v>
+        <v>2257.336521875548</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.268907708828</v>
+        <v>2029.268907708827</v>
       </c>
       <c r="V30" t="n">
         <v>1794.116799477085</v>
@@ -6585,7 +6585,7 @@
         <v>1332.02794254335</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.267643778397</v>
+        <v>1124.267643778396</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.9545218519215</v>
+        <v>774.9545218519213</v>
       </c>
       <c r="C31" t="n">
-        <v>653.3338506587608</v>
+        <v>653.3338506587606</v>
       </c>
       <c r="D31" t="n">
-        <v>550.5327229811712</v>
+        <v>550.5327229811711</v>
       </c>
       <c r="E31" t="n">
         <v>449.9351411335242</v>
       </c>
       <c r="F31" t="n">
-        <v>350.36070537036</v>
+        <v>350.3607053703601</v>
       </c>
       <c r="G31" t="n">
-        <v>229.976345800857</v>
+        <v>229.9763458008572</v>
       </c>
       <c r="H31" t="n">
-        <v>131.1010351531812</v>
+        <v>131.1010351531811</v>
       </c>
       <c r="I31" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="J31" t="n">
         <v>172.8820866929394</v>
       </c>
       <c r="K31" t="n">
-        <v>423.5808632058814</v>
+        <v>423.580863205881</v>
       </c>
       <c r="L31" t="n">
-        <v>786.9466839095926</v>
+        <v>786.9466839095921</v>
       </c>
       <c r="M31" t="n">
         <v>1177.933240042597</v>
       </c>
       <c r="N31" t="n">
-        <v>1566.160294667656</v>
+        <v>1566.160294667655</v>
       </c>
       <c r="O31" t="n">
         <v>1912.274620508906</v>
@@ -6640,31 +6640,31 @@
         <v>2191.607559116077</v>
       </c>
       <c r="Q31" t="n">
-        <v>2315.83515224656</v>
+        <v>2315.835152246559</v>
       </c>
       <c r="R31" t="n">
-        <v>2273.453538355415</v>
+        <v>2273.453538355414</v>
       </c>
       <c r="S31" t="n">
-        <v>2129.134843375335</v>
+        <v>2129.134843375334</v>
       </c>
       <c r="T31" t="n">
-        <v>1954.696409687652</v>
+        <v>1954.696409687651</v>
       </c>
       <c r="U31" t="n">
         <v>1712.909216292825</v>
       </c>
       <c r="V31" t="n">
-        <v>1505.540239821685</v>
+        <v>1505.540239821684</v>
       </c>
       <c r="W31" t="n">
-        <v>1263.43858151947</v>
+        <v>1263.438581519469</v>
       </c>
       <c r="X31" t="n">
         <v>1082.764542356199</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.2874749474151</v>
+        <v>909.2874749474148</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.871085824195</v>
+        <v>2033.871085824194</v>
       </c>
       <c r="C32" t="n">
-        <v>1712.22408061853</v>
+        <v>1712.224080618529</v>
       </c>
       <c r="D32" t="n">
-        <v>1401.273893746525</v>
+        <v>1401.273893746524</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.801152883027</v>
+        <v>1062.801152883026</v>
       </c>
       <c r="F32" t="n">
-        <v>699.1307598281655</v>
+        <v>699.1307598281647</v>
       </c>
       <c r="G32" t="n">
-        <v>331.3804320824788</v>
+        <v>331.3804320824787</v>
       </c>
       <c r="H32" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="I32" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="J32" t="n">
-        <v>387.685440777014</v>
+        <v>438.0147323696418</v>
       </c>
       <c r="K32" t="n">
-        <v>722.3289831006634</v>
+        <v>871.1424024600852</v>
       </c>
       <c r="L32" t="n">
-        <v>1174.385650417281</v>
+        <v>1323.199069776702</v>
       </c>
       <c r="M32" t="n">
-        <v>1709.055232245895</v>
+        <v>2302.887049763221</v>
       </c>
       <c r="N32" t="n">
-        <v>2256.990135267167</v>
+        <v>2850.821952784493</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.054265338144</v>
+        <v>3354.88608285547</v>
       </c>
       <c r="P32" t="n">
-        <v>3475.341058648728</v>
+        <v>3750.592155076286</v>
       </c>
       <c r="Q32" t="n">
-        <v>3934.518933459465</v>
+        <v>3999.578189133716</v>
       </c>
       <c r="R32" t="n">
-        <v>4059.002249847085</v>
+        <v>4059.002249847084</v>
       </c>
       <c r="S32" t="n">
-        <v>3996.177733855711</v>
+        <v>3996.17773385571</v>
       </c>
       <c r="T32" t="n">
-        <v>3837.544436202614</v>
+        <v>3837.544436202613</v>
       </c>
       <c r="U32" t="n">
-        <v>3631.330000065163</v>
+        <v>3631.330000065162</v>
       </c>
       <c r="V32" t="n">
-        <v>3347.582624456338</v>
+        <v>3347.582624456337</v>
       </c>
       <c r="W32" t="n">
-        <v>3042.12948092097</v>
+        <v>3042.129480920969</v>
       </c>
       <c r="X32" t="n">
         <v>2715.979234394636</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.155414153571</v>
+        <v>2373.15541415357</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.0523067583287</v>
+        <v>956.0523067583284</v>
       </c>
       <c r="C33" t="n">
-        <v>781.5992774772017</v>
+        <v>781.5992774772014</v>
       </c>
       <c r="D33" t="n">
-        <v>632.6648678159504</v>
+        <v>632.6648678159502</v>
       </c>
       <c r="E33" t="n">
-        <v>473.4274128104948</v>
+        <v>473.4274128104947</v>
       </c>
       <c r="F33" t="n">
-        <v>326.8928548373798</v>
+        <v>326.8928548373797</v>
       </c>
       <c r="G33" t="n">
         <v>190.5332916927176</v>
@@ -6774,43 +6774,43 @@
         <v>100.065557523694</v>
       </c>
       <c r="I33" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="J33" t="n">
         <v>175.1848355637786</v>
       </c>
       <c r="K33" t="n">
-        <v>414.0088202301746</v>
+        <v>414.0088202301744</v>
       </c>
       <c r="L33" t="n">
-        <v>781.4596814795769</v>
+        <v>781.4596814795766</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.614373192455</v>
+        <v>1223.807322947754</v>
       </c>
       <c r="N33" t="n">
-        <v>1704.039030984816</v>
+        <v>1698.231980740115</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.091815787406</v>
+        <v>2110.018061041215</v>
       </c>
       <c r="P33" t="n">
-        <v>2421.253382687883</v>
+        <v>2421.179627941693</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.337453374838</v>
+        <v>2579.263698628648</v>
       </c>
       <c r="R33" t="n">
         <v>2579.337453374838</v>
       </c>
       <c r="S33" t="n">
-        <v>2449.965265514012</v>
+        <v>2449.965265514011</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.336521875549</v>
+        <v>2257.336521875548</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.268907708828</v>
+        <v>2029.268907708827</v>
       </c>
       <c r="V33" t="n">
         <v>1794.116799477085</v>
@@ -6822,7 +6822,7 @@
         <v>1332.02794254335</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.267643778397</v>
+        <v>1124.267643778396</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.9545218519215</v>
+        <v>774.9545218519208</v>
       </c>
       <c r="C34" t="n">
-        <v>653.3338506587608</v>
+        <v>653.3338506587601</v>
       </c>
       <c r="D34" t="n">
-        <v>550.5327229811712</v>
+        <v>550.5327229811705</v>
       </c>
       <c r="E34" t="n">
-        <v>449.9351411335242</v>
+        <v>449.9351411335236</v>
       </c>
       <c r="F34" t="n">
-        <v>350.36070537036</v>
+        <v>350.3607053703594</v>
       </c>
       <c r="G34" t="n">
-        <v>229.976345800857</v>
+        <v>229.9763458008565</v>
       </c>
       <c r="H34" t="n">
-        <v>131.1010351531812</v>
+        <v>131.1010351531806</v>
       </c>
       <c r="I34" t="n">
-        <v>81.1800449969417</v>
+        <v>81.18004499694167</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8820866929395</v>
+        <v>172.8820866929394</v>
       </c>
       <c r="K34" t="n">
-        <v>423.5808632058813</v>
+        <v>423.5808632058811</v>
       </c>
       <c r="L34" t="n">
-        <v>786.9466839095924</v>
+        <v>786.9466839095923</v>
       </c>
       <c r="M34" t="n">
-        <v>1177.933240042597</v>
+        <v>1177.933240042596</v>
       </c>
       <c r="N34" t="n">
-        <v>1566.160294667656</v>
+        <v>1566.160294667655</v>
       </c>
       <c r="O34" t="n">
         <v>1912.274620508906</v>
@@ -6880,7 +6880,7 @@
         <v>2315.83515224656</v>
       </c>
       <c r="R34" t="n">
-        <v>2273.453538355415</v>
+        <v>2273.453538355414</v>
       </c>
       <c r="S34" t="n">
         <v>2129.134843375334</v>
@@ -6892,16 +6892,16 @@
         <v>1712.909216292825</v>
       </c>
       <c r="V34" t="n">
-        <v>1505.540239821685</v>
+        <v>1505.540239821684</v>
       </c>
       <c r="W34" t="n">
         <v>1263.43858151947</v>
       </c>
       <c r="X34" t="n">
-        <v>1082.764542356199</v>
+        <v>1082.764542356198</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.2874749474151</v>
+        <v>909.2874749474144</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1062.801152883027</v>
       </c>
       <c r="F35" t="n">
-        <v>699.1307598281655</v>
+        <v>699.1307598281652</v>
       </c>
       <c r="G35" t="n">
         <v>331.3804320824788</v>
@@ -6935,25 +6935,25 @@
         <v>81.1800449969417</v>
       </c>
       <c r="J35" t="n">
-        <v>438.0147323696419</v>
+        <v>438.0147323696418</v>
       </c>
       <c r="K35" t="n">
-        <v>1040.909704190432</v>
+        <v>772.6582746932911</v>
       </c>
       <c r="L35" t="n">
-        <v>1492.966371507049</v>
+        <v>1224.714942009908</v>
       </c>
       <c r="M35" t="n">
-        <v>2027.635953335663</v>
+        <v>1759.384523838522</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.570856356935</v>
+        <v>2307.319426859794</v>
       </c>
       <c r="O35" t="n">
-        <v>3079.634986427913</v>
+        <v>3188.37573638089</v>
       </c>
       <c r="P35" t="n">
-        <v>3475.341058648728</v>
+        <v>3584.081808601705</v>
       </c>
       <c r="Q35" t="n">
         <v>3934.518933459465</v>
@@ -6962,7 +6962,7 @@
         <v>4059.002249847085</v>
       </c>
       <c r="S35" t="n">
-        <v>3996.177733855712</v>
+        <v>3996.177733855711</v>
       </c>
       <c r="T35" t="n">
         <v>3837.544436202614</v>
@@ -6971,16 +6971,16 @@
         <v>3631.330000065162</v>
       </c>
       <c r="V35" t="n">
-        <v>3347.582624456337</v>
+        <v>3347.582624456338</v>
       </c>
       <c r="W35" t="n">
-        <v>3042.129480920969</v>
+        <v>3042.12948092097</v>
       </c>
       <c r="X35" t="n">
         <v>2715.979234394636</v>
       </c>
       <c r="Y35" t="n">
-        <v>2373.15541415357</v>
+        <v>2373.155414153571</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7017,10 @@
         <v>175.1848355637786</v>
       </c>
       <c r="K36" t="n">
-        <v>414.0088202301746</v>
+        <v>414.0088202301745</v>
       </c>
       <c r="L36" t="n">
-        <v>781.4596814795769</v>
+        <v>781.4596814795767</v>
       </c>
       <c r="M36" t="n">
         <v>1229.614373192455</v>
@@ -7029,13 +7029,13 @@
         <v>1704.039030984816</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.825111285917</v>
+        <v>2110.018061041216</v>
       </c>
       <c r="P36" t="n">
-        <v>2426.986678186394</v>
+        <v>2421.179627941693</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.337453374838</v>
+        <v>2579.263698628648</v>
       </c>
       <c r="R36" t="n">
         <v>2579.337453374838</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.9545218519212</v>
+        <v>774.9545218519215</v>
       </c>
       <c r="C37" t="n">
-        <v>653.3338506587604</v>
+        <v>653.3338506587608</v>
       </c>
       <c r="D37" t="n">
-        <v>550.5327229811709</v>
+        <v>550.5327229811712</v>
       </c>
       <c r="E37" t="n">
-        <v>449.9351411335239</v>
+        <v>449.9351411335243</v>
       </c>
       <c r="F37" t="n">
-        <v>350.3607053703597</v>
+        <v>350.3607053703601</v>
       </c>
       <c r="G37" t="n">
-        <v>229.9763458008568</v>
+        <v>229.9763458008571</v>
       </c>
       <c r="H37" t="n">
         <v>131.1010351531812</v>
@@ -7093,34 +7093,34 @@
         <v>81.1800449969417</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8820866929393</v>
+        <v>172.8820866929391</v>
       </c>
       <c r="K37" t="n">
-        <v>423.5808632058814</v>
+        <v>423.5808632058807</v>
       </c>
       <c r="L37" t="n">
-        <v>786.9466839095926</v>
+        <v>786.9466839095918</v>
       </c>
       <c r="M37" t="n">
-        <v>1177.933240042597</v>
+        <v>1177.933240042596</v>
       </c>
       <c r="N37" t="n">
-        <v>1566.160294667656</v>
+        <v>1566.160294667655</v>
       </c>
       <c r="O37" t="n">
         <v>1912.274620508906</v>
       </c>
       <c r="P37" t="n">
-        <v>2191.607559116078</v>
+        <v>2191.607559116077</v>
       </c>
       <c r="Q37" t="n">
         <v>2315.83515224656</v>
       </c>
       <c r="R37" t="n">
-        <v>2273.453538355415</v>
+        <v>2273.453538355414</v>
       </c>
       <c r="S37" t="n">
-        <v>2129.134843375335</v>
+        <v>2129.134843375334</v>
       </c>
       <c r="T37" t="n">
         <v>1954.696409687652</v>
@@ -7138,7 +7138,7 @@
         <v>1082.764542356199</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.2874749474147</v>
+        <v>909.2874749474151</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.871085824195</v>
+        <v>2033.871085824196</v>
       </c>
       <c r="C38" t="n">
-        <v>1712.224080618529</v>
+        <v>1712.22408061853</v>
       </c>
       <c r="D38" t="n">
-        <v>1401.273893746525</v>
+        <v>1401.273893746526</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.801152883027</v>
+        <v>1062.801152883028</v>
       </c>
       <c r="F38" t="n">
-        <v>699.1307598281651</v>
+        <v>699.1307598281664</v>
       </c>
       <c r="G38" t="n">
         <v>331.3804320824788</v>
@@ -7175,19 +7175,19 @@
         <v>270.6090833492888</v>
       </c>
       <c r="K38" t="n">
-        <v>605.2526256729383</v>
+        <v>663.9175247403151</v>
       </c>
       <c r="L38" t="n">
-        <v>1057.309292989556</v>
+        <v>1115.974192056932</v>
       </c>
       <c r="M38" t="n">
-        <v>1591.97887481817</v>
+        <v>1650.643773885546</v>
       </c>
       <c r="N38" t="n">
-        <v>2139.913777839442</v>
+        <v>2198.578676906818</v>
       </c>
       <c r="O38" t="n">
-        <v>3020.970087360537</v>
+        <v>3079.634986427914</v>
       </c>
       <c r="P38" t="n">
         <v>3475.341058648729</v>
@@ -7202,22 +7202,22 @@
         <v>3996.177733855712</v>
       </c>
       <c r="T38" t="n">
-        <v>3837.544436202614</v>
+        <v>3837.544436202615</v>
       </c>
       <c r="U38" t="n">
-        <v>3631.330000065162</v>
+        <v>3631.330000065163</v>
       </c>
       <c r="V38" t="n">
-        <v>3347.582624456337</v>
+        <v>3347.582624456339</v>
       </c>
       <c r="W38" t="n">
-        <v>3042.129480920969</v>
+        <v>3042.129480920971</v>
       </c>
       <c r="X38" t="n">
-        <v>2715.979234394636</v>
+        <v>2715.979234394637</v>
       </c>
       <c r="Y38" t="n">
-        <v>2373.15541415357</v>
+        <v>2373.155414153572</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>81.18004499694172</v>
       </c>
       <c r="J39" t="n">
-        <v>169.4515400652676</v>
+        <v>175.1848355637786</v>
       </c>
       <c r="K39" t="n">
-        <v>408.2755247316636</v>
+        <v>414.0088202301745</v>
       </c>
       <c r="L39" t="n">
-        <v>775.726385981066</v>
+        <v>775.6526312348763</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.881077693944</v>
+        <v>1223.807322947755</v>
       </c>
       <c r="N39" t="n">
-        <v>1698.305735486305</v>
+        <v>1698.231980740116</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.091815787406</v>
+        <v>2110.018061041216</v>
       </c>
       <c r="P39" t="n">
-        <v>2421.253382687883</v>
+        <v>2421.179627941693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.337453374838</v>
+        <v>2579.263698628648</v>
       </c>
       <c r="R39" t="n">
         <v>2579.337453374838</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.9545218519218</v>
+        <v>774.9545218519215</v>
       </c>
       <c r="C40" t="n">
-        <v>653.333850658761</v>
+        <v>653.3338506587608</v>
       </c>
       <c r="D40" t="n">
-        <v>550.5327229811713</v>
+        <v>550.5327229811712</v>
       </c>
       <c r="E40" t="n">
         <v>449.9351411335243</v>
@@ -7330,13 +7330,13 @@
         <v>81.18004499694172</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8820866929394</v>
+        <v>172.8820866929396</v>
       </c>
       <c r="K40" t="n">
-        <v>423.5808632058811</v>
+        <v>423.5808632058813</v>
       </c>
       <c r="L40" t="n">
-        <v>786.9466839095923</v>
+        <v>786.9466839095924</v>
       </c>
       <c r="M40" t="n">
         <v>1177.933240042597</v>
@@ -7363,19 +7363,19 @@
         <v>1954.696409687652</v>
       </c>
       <c r="U40" t="n">
-        <v>1712.909216292826</v>
+        <v>1712.909216292825</v>
       </c>
       <c r="V40" t="n">
         <v>1505.540239821685</v>
       </c>
       <c r="W40" t="n">
-        <v>1263.438581519471</v>
+        <v>1263.43858151947</v>
       </c>
       <c r="X40" t="n">
         <v>1082.764542356199</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.2874749474154</v>
+        <v>909.2874749474151</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7403,43 @@
         <v>331.3804320824788</v>
       </c>
       <c r="H41" t="n">
-        <v>81.18004499694172</v>
+        <v>81.1800449969417</v>
       </c>
       <c r="I41" t="n">
-        <v>81.18004499694172</v>
+        <v>81.1800449969417</v>
       </c>
       <c r="J41" t="n">
-        <v>438.0147323696419</v>
+        <v>270.6090833492888</v>
       </c>
       <c r="K41" t="n">
-        <v>806.0831467858334</v>
+        <v>605.2526256729382</v>
       </c>
       <c r="L41" t="n">
-        <v>1258.139814102451</v>
+        <v>1057.309292989555</v>
       </c>
       <c r="M41" t="n">
-        <v>2237.827794088969</v>
+        <v>1591.978874818169</v>
       </c>
       <c r="N41" t="n">
-        <v>2785.762697110241</v>
+        <v>2572.887233007305</v>
       </c>
       <c r="O41" t="n">
-        <v>3289.826827181219</v>
+        <v>3076.951363078283</v>
       </c>
       <c r="P41" t="n">
         <v>3685.532899402034</v>
       </c>
       <c r="Q41" t="n">
-        <v>3934.518933459466</v>
+        <v>3934.518933459465</v>
       </c>
       <c r="R41" t="n">
-        <v>4059.002249847086</v>
+        <v>4059.002249847085</v>
       </c>
       <c r="S41" t="n">
         <v>3996.177733855712</v>
       </c>
       <c r="T41" t="n">
-        <v>3837.544436202615</v>
+        <v>3837.544436202614</v>
       </c>
       <c r="U41" t="n">
         <v>3631.330000065163</v>
@@ -7448,13 +7448,13 @@
         <v>3347.582624456339</v>
       </c>
       <c r="W41" t="n">
-        <v>3042.12948092097</v>
+        <v>3042.129480920971</v>
       </c>
       <c r="X41" t="n">
-        <v>2715.979234394636</v>
+        <v>2715.979234394637</v>
       </c>
       <c r="Y41" t="n">
-        <v>2373.155414153571</v>
+        <v>2373.155414153572</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>100.065557523694</v>
       </c>
       <c r="I42" t="n">
-        <v>81.18004499694172</v>
+        <v>81.1800449969417</v>
       </c>
       <c r="J42" t="n">
         <v>175.1848355637786</v>
       </c>
       <c r="K42" t="n">
-        <v>414.0088202301746</v>
+        <v>414.0088202301745</v>
       </c>
       <c r="L42" t="n">
-        <v>781.4596814795769</v>
+        <v>775.6526312348763</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.614373192455</v>
+        <v>1223.807322947755</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.039030984816</v>
+        <v>1698.231980740116</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.825111285917</v>
+        <v>2110.018061041216</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.986678186394</v>
+        <v>2421.179627941693</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.337453374838</v>
+        <v>2579.263698628648</v>
       </c>
       <c r="R42" t="n">
         <v>2579.337453374838</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.9545218519219</v>
+        <v>774.9545218519212</v>
       </c>
       <c r="C43" t="n">
-        <v>653.3338506587611</v>
+        <v>653.3338506587604</v>
       </c>
       <c r="D43" t="n">
-        <v>550.5327229811716</v>
+        <v>550.5327229811709</v>
       </c>
       <c r="E43" t="n">
-        <v>449.9351411335246</v>
+        <v>449.9351411335239</v>
       </c>
       <c r="F43" t="n">
-        <v>350.3607053703604</v>
+        <v>350.3607053703597</v>
       </c>
       <c r="G43" t="n">
-        <v>229.9763458008574</v>
+        <v>229.9763458008568</v>
       </c>
       <c r="H43" t="n">
-        <v>131.1010351531813</v>
+        <v>131.1010351531809</v>
       </c>
       <c r="I43" t="n">
-        <v>81.18004499694172</v>
+        <v>81.1800449969417</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8820866929396</v>
+        <v>172.8820866929394</v>
       </c>
       <c r="K43" t="n">
-        <v>423.580863205881</v>
+        <v>423.5808632058811</v>
       </c>
       <c r="L43" t="n">
         <v>786.9466839095921</v>
@@ -7579,13 +7579,13 @@
         <v>1177.933240042597</v>
       </c>
       <c r="N43" t="n">
-        <v>1566.160294667656</v>
+        <v>1566.160294667655</v>
       </c>
       <c r="O43" t="n">
         <v>1912.274620508906</v>
       </c>
       <c r="P43" t="n">
-        <v>2191.607559116078</v>
+        <v>2191.607559116077</v>
       </c>
       <c r="Q43" t="n">
         <v>2315.83515224656</v>
@@ -7597,22 +7597,22 @@
         <v>2129.134843375335</v>
       </c>
       <c r="T43" t="n">
-        <v>1954.696409687653</v>
+        <v>1954.696409687652</v>
       </c>
       <c r="U43" t="n">
-        <v>1712.909216292826</v>
+        <v>1712.909216292825</v>
       </c>
       <c r="V43" t="n">
         <v>1505.540239821685</v>
       </c>
       <c r="W43" t="n">
-        <v>1263.438581519471</v>
+        <v>1263.43858151947</v>
       </c>
       <c r="X43" t="n">
         <v>1082.764542356199</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.2874749474155</v>
+        <v>909.2874749474147</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>270.6090833492888</v>
       </c>
       <c r="K44" t="n">
-        <v>605.2526256729383</v>
+        <v>605.2526256729382</v>
       </c>
       <c r="L44" t="n">
-        <v>1323.199069776703</v>
+        <v>1470.793895394501</v>
       </c>
       <c r="M44" t="n">
-        <v>2302.887049763221</v>
+        <v>2005.463477223115</v>
       </c>
       <c r="N44" t="n">
-        <v>2850.821952784493</v>
+        <v>2553.398380244387</v>
       </c>
       <c r="O44" t="n">
         <v>3354.886082855471</v>
@@ -7667,7 +7667,7 @@
         <v>3750.592155076286</v>
       </c>
       <c r="Q44" t="n">
-        <v>3999.578189133718</v>
+        <v>3999.578189133717</v>
       </c>
       <c r="R44" t="n">
         <v>4059.002249847085</v>
@@ -7676,7 +7676,7 @@
         <v>3996.177733855711</v>
       </c>
       <c r="T44" t="n">
-        <v>3837.544436202614</v>
+        <v>3837.544436202613</v>
       </c>
       <c r="U44" t="n">
         <v>3631.330000065163</v>
@@ -7725,28 +7725,28 @@
         <v>81.1800449969417</v>
       </c>
       <c r="J45" t="n">
-        <v>175.1848355637786</v>
+        <v>169.3777853190782</v>
       </c>
       <c r="K45" t="n">
-        <v>414.0088202301746</v>
+        <v>408.201769985474</v>
       </c>
       <c r="L45" t="n">
-        <v>781.4596814795769</v>
+        <v>775.6526312348763</v>
       </c>
       <c r="M45" t="n">
-        <v>1229.614373192455</v>
+        <v>1223.807322947755</v>
       </c>
       <c r="N45" t="n">
-        <v>1704.039030984816</v>
+        <v>1698.231980740116</v>
       </c>
       <c r="O45" t="n">
-        <v>2115.825111285917</v>
+        <v>2110.018061041216</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.986678186394</v>
+        <v>2421.179627941693</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.337453374838</v>
+        <v>2579.263698628648</v>
       </c>
       <c r="R45" t="n">
         <v>2579.337453374838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.9545218519215</v>
+        <v>774.9545218519213</v>
       </c>
       <c r="C46" t="n">
-        <v>653.3338506587608</v>
+        <v>653.3338506587605</v>
       </c>
       <c r="D46" t="n">
-        <v>550.5327229811712</v>
+        <v>550.532722981171</v>
       </c>
       <c r="E46" t="n">
-        <v>449.9351411335243</v>
+        <v>449.935141133524</v>
       </c>
       <c r="F46" t="n">
-        <v>350.3607053703601</v>
+        <v>350.3607053703599</v>
       </c>
       <c r="G46" t="n">
-        <v>229.9763458008572</v>
+        <v>229.976345800857</v>
       </c>
       <c r="H46" t="n">
         <v>131.1010351531811</v>
@@ -7804,13 +7804,13 @@
         <v>81.1800449969417</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8820866929394</v>
+        <v>172.8820866929392</v>
       </c>
       <c r="K46" t="n">
-        <v>423.5808632058811</v>
+        <v>423.580863205881</v>
       </c>
       <c r="L46" t="n">
-        <v>786.9466839095924</v>
+        <v>786.9466839095921</v>
       </c>
       <c r="M46" t="n">
         <v>1177.933240042597</v>
@@ -7822,34 +7822,34 @@
         <v>1912.274620508906</v>
       </c>
       <c r="P46" t="n">
-        <v>2191.607559116078</v>
+        <v>2191.607559116077</v>
       </c>
       <c r="Q46" t="n">
         <v>2315.83515224656</v>
       </c>
       <c r="R46" t="n">
-        <v>2273.453538355415</v>
+        <v>2273.453538355414</v>
       </c>
       <c r="S46" t="n">
-        <v>2129.134843375335</v>
+        <v>2129.134843375334</v>
       </c>
       <c r="T46" t="n">
-        <v>1954.696409687652</v>
+        <v>1954.696409687651</v>
       </c>
       <c r="U46" t="n">
-        <v>1712.909216292826</v>
+        <v>1712.909216292825</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.540239821685</v>
+        <v>1505.540239821684</v>
       </c>
       <c r="W46" t="n">
-        <v>1263.438581519471</v>
+        <v>1263.43858151947</v>
       </c>
       <c r="X46" t="n">
         <v>1082.764542356199</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.287474947415</v>
+        <v>909.2874749474148</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>390.1925692792718</v>
+        <v>390.1925692792723</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>14.87875159760119</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>300.4278510506128</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>270.961039896101</v>
+        <v>300.4278510506114</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>118.2589468966921</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>99.47891693615566</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>270.9610398961013</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>102.4758492932614</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>59.25747380543129</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>59.25747380543027</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>33.76249706317378</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>215.0257213160967</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>268.5755321082295</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>300.4278510506125</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>270.603701478992</v>
+        <v>336.5392861602715</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.23089570874</v>
       </c>
       <c r="E11" t="n">
-        <v>353.1967644615256</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.1424401309754</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>265.8071342213442</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.30502183812234</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>110.9120042099719</v>
       </c>
       <c r="G13" t="n">
-        <v>106.7185072707598</v>
+        <v>137.2892669804706</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>115.9953085478618</v>
       </c>
       <c r="I13" t="n">
-        <v>67.53053126133958</v>
+        <v>67.5305312613397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>257.478072467541</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.2658488236936</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>378.1424401309753</v>
+        <v>378.1424401309754</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.21106652987433</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.59101471110778</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.30502183812234</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>175.1557156832291</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>320.5073631066768</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>357.5043330453176</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.5132154878917</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>119.8818674074764</v>
       </c>
       <c r="E16" t="n">
-        <v>117.700357035833</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6874424121951</v>
+        <v>116.6874424121953</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>137.2892669804706</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.86853419950337</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>58.8260960637198</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.54214900768645</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>284.8855881429281</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>341.1177276078733</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>41.31000954274163</v>
       </c>
     </row>
     <row r="18">
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>284.8855881429281</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>337.0785922639565</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>45.34914488665765</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>97.54214900768741</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-2.415845301584341e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962667.0163110064</v>
+        <v>962667.0163110059</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1097938.418906945</v>
+        <v>1097938.418906946</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1097938.418906945</v>
+        <v>1097938.418906946</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>368679.3954842109</v>
       </c>
       <c r="E2" t="n">
-        <v>330063.873520092</v>
+        <v>330063.8735200917</v>
       </c>
       <c r="F2" t="n">
-        <v>330063.8735200921</v>
+        <v>330063.8735200919</v>
       </c>
       <c r="G2" t="n">
-        <v>355770.2348941927</v>
+        <v>355770.2348941925</v>
       </c>
       <c r="H2" t="n">
-        <v>355770.2348941924</v>
+        <v>355770.2348941926</v>
       </c>
       <c r="I2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="J2" t="n">
         <v>369468.7964389275</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>369468.7964389274</v>
+      </c>
+      <c r="L2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="N2" t="n">
         <v>369468.7964389277</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>369468.7964389275</v>
       </c>
-      <c r="L2" t="n">
-        <v>369468.7964389275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>369468.7964389273</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369468.7964389276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389278</v>
-      </c>
       <c r="P2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389274</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>1120522.319226967</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32851.07829361496</v>
+        <v>32851.07829361512</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.021374298698698e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>26204.79444723478</v>
+        <v>26204.7944472347</v>
       </c>
       <c r="J3" t="n">
-        <v>26289.70224897295</v>
+        <v>26289.70224897286</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32851.07829361496</v>
+        <v>32851.0782936151</v>
       </c>
       <c r="M3" t="n">
-        <v>207685.7254868542</v>
+        <v>207685.7254868543</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4622.807000303999</v>
+        <v>4622.807000303839</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>416644.6257773438</v>
       </c>
       <c r="E4" t="n">
-        <v>38808.04865974757</v>
+        <v>38808.04865974744</v>
       </c>
       <c r="F4" t="n">
-        <v>38808.04865974757</v>
+        <v>38808.04865974737</v>
       </c>
       <c r="G4" t="n">
         <v>71342.32196782577</v>
       </c>
       <c r="H4" t="n">
-        <v>71342.32196782576</v>
+        <v>71342.32196782585</v>
       </c>
       <c r="I4" t="n">
-        <v>83036.15915358398</v>
+        <v>83036.15915358404</v>
       </c>
       <c r="J4" t="n">
+        <v>78377.78035486134</v>
+      </c>
+      <c r="K4" t="n">
         <v>78377.78035486132</v>
       </c>
-      <c r="K4" t="n">
-        <v>78377.78035486129</v>
-      </c>
       <c r="L4" t="n">
-        <v>78377.78035486129</v>
+        <v>78377.78035486132</v>
       </c>
       <c r="M4" t="n">
-        <v>78377.78035486132</v>
+        <v>78377.78035486133</v>
       </c>
       <c r="N4" t="n">
-        <v>78377.78035486129</v>
+        <v>78377.78035486136</v>
       </c>
       <c r="O4" t="n">
-        <v>78377.78035486129</v>
+        <v>78377.78035486134</v>
       </c>
       <c r="P4" t="n">
-        <v>78377.7803548613</v>
+        <v>78377.78035486137</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76878.73043917405</v>
+        <v>76878.73043917403</v>
       </c>
       <c r="F5" t="n">
-        <v>76878.73043917405</v>
+        <v>76878.73043917402</v>
       </c>
       <c r="G5" t="n">
-        <v>80330.92706550645</v>
+        <v>80330.92706550643</v>
       </c>
       <c r="H5" t="n">
         <v>80330.92706550645</v>
       </c>
       <c r="I5" t="n">
-        <v>86322.37378235797</v>
+        <v>86322.37378235796</v>
       </c>
       <c r="J5" t="n">
-        <v>89427.44590425193</v>
+        <v>89427.44590425192</v>
       </c>
       <c r="K5" t="n">
+        <v>89427.4459042519</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89427.4459042519</v>
+      </c>
+      <c r="M5" t="n">
         <v>89427.44590425192</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89427.44590425192</v>
-      </c>
-      <c r="M5" t="n">
-        <v>89427.44590425193</v>
       </c>
       <c r="N5" t="n">
         <v>89427.44590425193</v>
       </c>
       <c r="O5" t="n">
-        <v>89427.44590425193</v>
+        <v>89427.44590425192</v>
       </c>
       <c r="P5" t="n">
-        <v>89427.44590425193</v>
+        <v>89427.44590425192</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90476.38674343613</v>
+        <v>-90480.80032130424</v>
       </c>
       <c r="C6" t="n">
-        <v>-92953.49312961911</v>
+        <v>-92957.90376839685</v>
       </c>
       <c r="D6" t="n">
-        <v>-109202.6441384655</v>
+        <v>-109207.0296993251</v>
       </c>
       <c r="E6" t="n">
-        <v>-906145.224805797</v>
+        <v>-906364.141044235</v>
       </c>
       <c r="F6" t="n">
-        <v>214377.0944211703</v>
+        <v>214158.1781827326</v>
       </c>
       <c r="G6" t="n">
-        <v>171245.9075672455</v>
+        <v>171169.8044475522</v>
       </c>
       <c r="H6" t="n">
-        <v>204096.9858608602</v>
+        <v>204020.8827411672</v>
       </c>
       <c r="I6" t="n">
-        <v>173905.4690557508</v>
+        <v>173905.4690557509</v>
       </c>
       <c r="J6" t="n">
-        <v>175373.8679308415</v>
+        <v>175373.8679308414</v>
       </c>
       <c r="K6" t="n">
-        <v>201663.5701798143</v>
+        <v>201663.5701798142</v>
       </c>
       <c r="L6" t="n">
         <v>168812.4918861993</v>
       </c>
       <c r="M6" t="n">
-        <v>-6022.155307040186</v>
+        <v>-6022.155307039924</v>
       </c>
       <c r="N6" t="n">
         <v>201663.5701798144</v>
       </c>
       <c r="O6" t="n">
-        <v>197040.7631795106</v>
+        <v>197040.7631795104</v>
       </c>
       <c r="P6" t="n">
-        <v>201663.5701798143</v>
+        <v>201663.5701798141</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="F2" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="G2" t="n">
         <v>69.79745347775487</v>
       </c>
       <c r="H2" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="I2" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="J2" t="n">
         <v>46.84235661739869</v>
       </c>
       <c r="K2" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="L2" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="M2" t="n">
         <v>46.84235661739869</v>
       </c>
       <c r="N2" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="O2" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="P2" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
     </row>
     <row r="3">
@@ -26799,16 +26799,16 @@
         <v>833.3964362002785</v>
       </c>
       <c r="F4" t="n">
-        <v>833.3964362002783</v>
+        <v>833.3964362002785</v>
       </c>
       <c r="G4" t="n">
-        <v>833.3964362002783</v>
+        <v>833.3964362002785</v>
       </c>
       <c r="H4" t="n">
-        <v>833.3964362002783</v>
+        <v>833.3964362002785</v>
       </c>
       <c r="I4" t="n">
-        <v>931.9399677274416</v>
+        <v>931.9399677274414</v>
       </c>
       <c r="J4" t="n">
         <v>1014.750562461771</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.0638478670187</v>
+        <v>41.0638478670189</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.778508750379991</v>
+        <v>5.778508750379807</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.0638478670187</v>
+        <v>41.06384786701888</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.778508750379999</v>
+        <v>5.7785087503798</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1056.383401120697</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.54353152716328</v>
+        <v>98.54353152716294</v>
       </c>
       <c r="J4" t="n">
-        <v>82.8105947343297</v>
+        <v>82.81059473432992</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>833.3964362002786</v>
+        <v>833.3964362002787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.0638478670187</v>
+        <v>41.0638478670189</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.778508750379991</v>
+        <v>5.778508750379807</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="C11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="D11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="E11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="F11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="G11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="H11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="I11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="T11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="U11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="V11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="W11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="X11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="C13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="D13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="E13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="F13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="G13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="H13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="I13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="J13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="K13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="L13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="M13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="N13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="O13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="P13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="R13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="S13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="T13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="U13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="V13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="W13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="X13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073603</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="C14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="D14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="E14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="F14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="G14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="H14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="I14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="T14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="U14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="V14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="W14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="X14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="C16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="D16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="E16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="F16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="G16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="H16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="I16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="J16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="K16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="L16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="M16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="N16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="O16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="P16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="R16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="S16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="T16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="U16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="V16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="W16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="X16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.73360561073617</v>
+        <v>28.73360561073597</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>69.79745347775487</v>
       </c>
       <c r="I17" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="C20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="D20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="E20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="F20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="G20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="H20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="I20" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="T20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="U20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="V20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="W20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="X20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="C22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="D22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="E22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="F22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="G22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="H22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="I22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="S22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="T22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="U22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="V22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="W22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="X22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="C23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="D23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="E23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="F23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="G23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="H23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="I23" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="T23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="U23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="V23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="W23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="X23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="C25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="D25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="E25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="F25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="G25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="H25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="I25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="S25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="T25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="U25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="V25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="W25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="X25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.79745347775487</v>
+        <v>69.79745347775491</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.84235661739869</v>
       </c>
       <c r="I26" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="C29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="D29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="E29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="F29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="G29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="H29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="I29" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="T29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="U29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="V29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="W29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="X29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="C31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="D31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="E31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="F31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="G31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="H31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="I31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="J31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="K31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="L31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="M31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="N31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="O31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="P31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="R31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="S31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="T31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="U31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="V31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="W31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="X31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739873</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="C32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="D32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="E32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="F32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="G32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="H32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="I32" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="T32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="U32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="V32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="W32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="X32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="C34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="D34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="E34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="F34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="G34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="H34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="I34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="J34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="K34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="L34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="M34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="N34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="O34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="P34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="R34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="S34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="T34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="U34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="V34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="W34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="X34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.84235661739867</v>
+        <v>46.84235661739871</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>46.84235661739869</v>
       </c>
       <c r="I35" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="C38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="D38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="E38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="F38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="G38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="H38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="I38" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="T38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="U38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="V38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="W38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="X38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="C40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="D40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="E40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="F40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="G40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="H40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="I40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="J40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739889</v>
       </c>
       <c r="K40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="L40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="M40" t="n">
-        <v>46.84235661739871</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="N40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="O40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="P40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="R40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="S40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="T40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="U40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="V40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="W40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="X40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739869</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="C41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="D41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="E41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="F41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="G41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="I41" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="T41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="U41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="V41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="W41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="X41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="C43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="D43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="E43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="F43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="G43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="H43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="I43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="K43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="L43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="M43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="N43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="O43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="P43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="R43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="S43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="T43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="U43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="V43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="W43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="X43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.84235661739866</v>
+        <v>46.84235661739868</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="C44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="D44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="E44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="F44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="G44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="H44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="I44" t="n">
-        <v>41.32462032184395</v>
+        <v>41.32462032184398</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="T44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="U44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="V44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="W44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="X44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="C46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="D46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="E46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="F46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="G46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="H46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="I46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="J46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="K46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="L46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="M46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="N46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="O46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="P46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="R46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="S46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="T46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="U46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="V46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="W46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="X46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.8423566173987</v>
+        <v>46.84235661739872</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31841,7 +31841,7 @@
         <v>221.7919605725625</v>
       </c>
       <c r="K12" t="n">
-        <v>379.0777871222336</v>
+        <v>373.2120798043543</v>
       </c>
       <c r="L12" t="n">
         <v>509.7168658903815</v>
@@ -31850,7 +31850,7 @@
         <v>594.8155407027034</v>
       </c>
       <c r="N12" t="n">
-        <v>604.7673305619704</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O12" t="n">
         <v>558.5417801021214</v>
@@ -31862,7 +31862,7 @@
         <v>299.6626535677945</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S12" t="n">
         <v>43.60470512161931</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H14" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I14" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K14" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L14" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M14" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N14" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O14" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P14" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R14" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S14" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T14" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I15" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J15" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K15" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L15" t="n">
-        <v>503.9256583161281</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M15" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N15" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O15" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P15" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.6626535677945</v>
+        <v>293.7969462499154</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S15" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T15" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,10 +32148,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H16" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I16" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J16" t="n">
         <v>139.1451484447263</v>
@@ -32166,25 +32166,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N16" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O16" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P16" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q16" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R16" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S16" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T16" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U16" t="n">
         <v>0.1073512782137532</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H17" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I17" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K17" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L17" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M17" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N17" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O17" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P17" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R17" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S17" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T17" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I18" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J18" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K18" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L18" t="n">
-        <v>509.7168658903816</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M18" t="n">
-        <v>594.8155407027035</v>
+        <v>588.9498333848242</v>
       </c>
       <c r="N18" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O18" t="n">
-        <v>552.7505725278679</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P18" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q18" t="n">
         <v>299.6626535677945</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S18" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T18" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,10 +32385,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H19" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I19" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J19" t="n">
         <v>139.1451484447263</v>
@@ -32403,25 +32403,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N19" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O19" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P19" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q19" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R19" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S19" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T19" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U19" t="n">
         <v>0.1073512782137532</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H20" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I20" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K20" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L20" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M20" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N20" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O20" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P20" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R20" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S20" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T20" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I21" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J21" t="n">
-        <v>216.000752998309</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K21" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L21" t="n">
-        <v>509.7168658903816</v>
+        <v>503.9256583161284</v>
       </c>
       <c r="M21" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N21" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O21" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P21" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q21" t="n">
         <v>299.6626535677945</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T21" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,10 +32622,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H22" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I22" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J22" t="n">
         <v>139.1451484447263</v>
@@ -32640,25 +32640,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N22" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O22" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P22" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q22" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R22" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T22" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U22" t="n">
         <v>0.1073512782137532</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H23" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I23" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J23" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K23" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L23" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M23" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N23" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O23" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P23" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R23" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S23" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T23" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I24" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J24" t="n">
-        <v>216.0007529983089</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K24" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L24" t="n">
-        <v>509.7168658903816</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M24" t="n">
-        <v>594.8155407027035</v>
+        <v>588.9498333848242</v>
       </c>
       <c r="N24" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O24" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P24" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q24" t="n">
         <v>299.6626535677945</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S24" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T24" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,10 +32859,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H25" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I25" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J25" t="n">
         <v>139.1451484447263</v>
@@ -32877,25 +32877,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N25" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O25" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P25" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q25" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R25" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S25" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T25" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U25" t="n">
         <v>0.1073512782137532</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H26" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I26" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J26" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K26" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L26" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M26" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N26" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O26" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P26" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R26" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S26" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T26" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I27" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J27" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K27" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L27" t="n">
-        <v>503.9256583161281</v>
+        <v>503.8511585725022</v>
       </c>
       <c r="M27" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N27" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O27" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P27" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q27" t="n">
         <v>299.6626535677945</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S27" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T27" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,10 +33096,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H28" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I28" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J28" t="n">
         <v>139.1451484447263</v>
@@ -33114,25 +33114,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N28" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O28" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P28" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q28" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R28" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T28" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U28" t="n">
         <v>0.1073512782137532</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H29" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I29" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J29" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K29" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L29" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M29" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N29" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O29" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P29" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R29" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S29" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T29" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I30" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J30" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K30" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L30" t="n">
-        <v>509.7168658903816</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M30" t="n">
-        <v>594.8155407027035</v>
+        <v>589.0243331284501</v>
       </c>
       <c r="N30" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O30" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P30" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q30" t="n">
-        <v>293.8714459935407</v>
+        <v>299.6626535677945</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T30" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,10 +33333,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H31" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I31" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J31" t="n">
         <v>139.1451484447263</v>
@@ -33351,25 +33351,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N31" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O31" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P31" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q31" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R31" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S31" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T31" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U31" t="n">
         <v>0.1073512782137532</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H32" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I32" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K32" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L32" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M32" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N32" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O32" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P32" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R32" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S32" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T32" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I33" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J33" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K33" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L33" t="n">
-        <v>509.7168658903816</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M33" t="n">
-        <v>594.8155407027035</v>
+        <v>588.9498333848239</v>
       </c>
       <c r="N33" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O33" t="n">
-        <v>552.7505725278679</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P33" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q33" t="n">
         <v>299.6626535677945</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S33" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T33" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,10 +33570,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H34" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I34" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J34" t="n">
         <v>139.1451484447263</v>
@@ -33588,25 +33588,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N34" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O34" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P34" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q34" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R34" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S34" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T34" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U34" t="n">
         <v>0.1073512782137532</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H35" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I35" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K35" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L35" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M35" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N35" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O35" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P35" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R35" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S35" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T35" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I36" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J36" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K36" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L36" t="n">
-        <v>509.7168658903816</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M36" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N36" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O36" t="n">
-        <v>558.5417801021216</v>
+        <v>552.6760727842425</v>
       </c>
       <c r="P36" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q36" t="n">
-        <v>293.8714459935407</v>
+        <v>299.6626535677945</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S36" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T36" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,10 +33807,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H37" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I37" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J37" t="n">
         <v>139.1451484447263</v>
@@ -33825,25 +33825,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N37" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O37" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P37" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q37" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R37" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S37" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T37" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U37" t="n">
         <v>0.1073512782137532</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H38" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I38" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K38" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L38" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M38" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N38" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O38" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P38" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R38" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S38" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T38" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I39" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J39" t="n">
-        <v>216.0007529983091</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K39" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L39" t="n">
-        <v>509.7168658903816</v>
+        <v>503.8511585725022</v>
       </c>
       <c r="M39" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N39" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O39" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P39" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q39" t="n">
         <v>299.6626535677945</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S39" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T39" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,10 +34044,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H40" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I40" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J40" t="n">
         <v>139.1451484447263</v>
@@ -34062,25 +34062,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N40" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O40" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P40" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q40" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R40" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S40" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T40" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U40" t="n">
         <v>0.1073512782137532</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H41" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I41" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K41" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L41" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M41" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N41" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O41" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P41" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R41" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S41" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T41" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I42" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J42" t="n">
-        <v>221.7919605725626</v>
+        <v>221.7919605725625</v>
       </c>
       <c r="K42" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L42" t="n">
-        <v>509.7168658903816</v>
+        <v>503.8511585725022</v>
       </c>
       <c r="M42" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N42" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O42" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P42" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q42" t="n">
-        <v>293.8714459935407</v>
+        <v>299.6626535677945</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S42" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T42" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,10 +34281,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H43" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I43" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J43" t="n">
         <v>139.1451484447263</v>
@@ -34299,25 +34299,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N43" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O43" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P43" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q43" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R43" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S43" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T43" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U43" t="n">
         <v>0.1073512782137532</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.387556429506823</v>
+        <v>4.387556429506822</v>
       </c>
       <c r="H44" t="n">
         <v>44.93406228368676</v>
       </c>
       <c r="I44" t="n">
-        <v>169.151269248562</v>
+        <v>169.1512692485619</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3883675088551</v>
+        <v>372.388367508855</v>
       </c>
       <c r="K44" t="n">
-        <v>558.113631169879</v>
+        <v>558.1136311698789</v>
       </c>
       <c r="L44" t="n">
-        <v>692.3893112493986</v>
+        <v>692.3893112493985</v>
       </c>
       <c r="M44" t="n">
-        <v>770.4165179026405</v>
+        <v>770.4165179026404</v>
       </c>
       <c r="N44" t="n">
-        <v>782.8826626079768</v>
+        <v>782.8826626079767</v>
       </c>
       <c r="O44" t="n">
-        <v>739.2538983620683</v>
+        <v>739.2538983620682</v>
       </c>
       <c r="P44" t="n">
-        <v>630.9360990086185</v>
+        <v>630.9360990086184</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.8067343769053</v>
+        <v>473.8067343769052</v>
       </c>
       <c r="R44" t="n">
-        <v>275.6098415650083</v>
+        <v>275.6098415650082</v>
       </c>
       <c r="S44" t="n">
-        <v>99.98144213738684</v>
+        <v>99.98144213738682</v>
       </c>
       <c r="T44" t="n">
-        <v>19.20652827016613</v>
+        <v>19.20652827016612</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3510045143605458</v>
+        <v>0.3510045143605457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>22.67238740916312</v>
       </c>
       <c r="I45" t="n">
-        <v>80.82572259851521</v>
+        <v>80.8257225985152</v>
       </c>
       <c r="J45" t="n">
-        <v>221.7919605725626</v>
+        <v>215.9262532546833</v>
       </c>
       <c r="K45" t="n">
-        <v>379.0777871222337</v>
+        <v>379.0777871222336</v>
       </c>
       <c r="L45" t="n">
-        <v>509.7168658903816</v>
+        <v>509.7168658903815</v>
       </c>
       <c r="M45" t="n">
-        <v>594.8155407027035</v>
+        <v>594.8155407027034</v>
       </c>
       <c r="N45" t="n">
-        <v>610.5585381362233</v>
+        <v>610.5585381362232</v>
       </c>
       <c r="O45" t="n">
-        <v>558.5417801021216</v>
+        <v>558.5417801021214</v>
       </c>
       <c r="P45" t="n">
-        <v>448.2790204451153</v>
+        <v>448.2790204451152</v>
       </c>
       <c r="Q45" t="n">
-        <v>293.8714459935407</v>
+        <v>299.6626535677945</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>145.75400370759</v>
       </c>
       <c r="S45" t="n">
-        <v>43.60470512161932</v>
+        <v>43.60470512161931</v>
       </c>
       <c r="T45" t="n">
-        <v>9.462272492743368</v>
+        <v>9.462272492743367</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1544440559207298</v>
+        <v>0.1544440559207297</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,10 +34518,10 @@
         <v>1.96810676725214</v>
       </c>
       <c r="H46" t="n">
-        <v>17.49825834884177</v>
+        <v>17.49825834884176</v>
       </c>
       <c r="I46" t="n">
-        <v>59.18633805518255</v>
+        <v>59.18633805518254</v>
       </c>
       <c r="J46" t="n">
         <v>139.1451484447263</v>
@@ -34536,25 +34536,25 @@
         <v>308.509681706624</v>
       </c>
       <c r="N46" t="n">
-        <v>301.1740110286845</v>
+        <v>301.1740110286844</v>
       </c>
       <c r="O46" t="n">
         <v>278.1829456112389</v>
       </c>
       <c r="P46" t="n">
-        <v>238.0335675592951</v>
+        <v>238.033567559295</v>
       </c>
       <c r="Q46" t="n">
         <v>164.8021039378133</v>
       </c>
       <c r="R46" t="n">
-        <v>88.4932370075371</v>
+        <v>88.49323700753709</v>
       </c>
       <c r="S46" t="n">
-        <v>34.2987333892941</v>
+        <v>34.29873338929409</v>
       </c>
       <c r="T46" t="n">
-        <v>8.409183460077323</v>
+        <v>8.409183460077321</v>
       </c>
       <c r="U46" t="n">
         <v>0.1073512782137532</v>
@@ -35489,7 +35489,7 @@
         <v>94.95433390589585</v>
       </c>
       <c r="K12" t="n">
-        <v>241.2363481478746</v>
+        <v>235.3706408299954</v>
       </c>
       <c r="L12" t="n">
         <v>371.1624861105073</v>
@@ -35498,7 +35498,7 @@
         <v>452.6815067806851</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4256184786371</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O12" t="n">
         <v>415.9455356576769</v>
@@ -35510,7 +35510,7 @@
         <v>159.6808794817729</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.51957393878965</v>
+        <v>74.51957393878952</v>
       </c>
       <c r="K13" t="n">
-        <v>235.1223363801473</v>
+        <v>235.1223363801471</v>
       </c>
       <c r="L13" t="n">
-        <v>348.9274315223386</v>
+        <v>348.9274315223385</v>
       </c>
       <c r="M13" t="n">
-        <v>376.8271642792007</v>
+        <v>376.8271642792006</v>
       </c>
       <c r="N13" t="n">
-        <v>374.0397890186491</v>
+        <v>374.039789018649</v>
       </c>
       <c r="O13" t="n">
-        <v>331.5016791360147</v>
+        <v>331.5016791360146</v>
       </c>
       <c r="P13" t="n">
-        <v>264.0457324349247</v>
+        <v>264.0457324349246</v>
       </c>
       <c r="Q13" t="n">
-        <v>107.373666296855</v>
+        <v>107.3736662968549</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>191.3424629821688</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K14" t="n">
-        <v>338.0237801248985</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L14" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M14" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N14" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O14" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P14" t="n">
-        <v>399.703103253349</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.5010445024558</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R14" t="n">
-        <v>60.02430375087613</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K15" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L15" t="n">
-        <v>365.3712785362539</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M15" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N15" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O15" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P15" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.680879481773</v>
+        <v>153.8151721638939</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.51957393878968</v>
+        <v>74.51957393878945</v>
       </c>
       <c r="K16" t="n">
-        <v>235.1223363801473</v>
+        <v>235.1223363801471</v>
       </c>
       <c r="L16" t="n">
-        <v>348.9274315223387</v>
+        <v>348.9274315223384</v>
       </c>
       <c r="M16" t="n">
-        <v>376.8271642792008</v>
+        <v>376.8271642792005</v>
       </c>
       <c r="N16" t="n">
-        <v>374.0397890186492</v>
+        <v>374.0397890186489</v>
       </c>
       <c r="O16" t="n">
-        <v>331.5016791360148</v>
+        <v>331.5016791360146</v>
       </c>
       <c r="P16" t="n">
-        <v>264.0457324349247</v>
+        <v>264.0457324349245</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.3736662968551</v>
+        <v>107.3736662968549</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>191.3424629821682</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K17" t="n">
-        <v>338.0237801248985</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L17" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M17" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N17" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O17" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P17" t="n">
-        <v>399.703103253349</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.5010445024558</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R17" t="n">
-        <v>60.02430375087613</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K18" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L18" t="n">
-        <v>371.1624861105074</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M18" t="n">
-        <v>452.6815067806852</v>
+        <v>446.8157994628059</v>
       </c>
       <c r="N18" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O18" t="n">
-        <v>410.1543280834235</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P18" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.680879481773</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.78596832805351</v>
+        <v>45.78596832805349</v>
       </c>
       <c r="K19" t="n">
-        <v>206.3887307694112</v>
+        <v>206.3887307694111</v>
       </c>
       <c r="L19" t="n">
-        <v>320.1938259116025</v>
+        <v>320.1938259116024</v>
       </c>
       <c r="M19" t="n">
-        <v>348.0935586684646</v>
+        <v>348.0935586684645</v>
       </c>
       <c r="N19" t="n">
-        <v>345.3061834079136</v>
+        <v>345.306183407913</v>
       </c>
       <c r="O19" t="n">
         <v>302.7680735252786</v>
       </c>
       <c r="P19" t="n">
-        <v>235.3121268241886</v>
+        <v>235.3121268241885</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.6400606861189</v>
+        <v>78.64006068611887</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.3424629821688</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K20" t="n">
-        <v>338.0237801248985</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L20" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M20" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N20" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113868</v>
       </c>
       <c r="O20" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P20" t="n">
-        <v>399.703103253349</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.5010445024551</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R20" t="n">
-        <v>60.02430375087613</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.16312633164233</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K21" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L21" t="n">
-        <v>371.1624861105074</v>
+        <v>365.3712785362542</v>
       </c>
       <c r="M21" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N21" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O21" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P21" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.680879481773</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.78596832805351</v>
+        <v>45.78596832805349</v>
       </c>
       <c r="K22" t="n">
-        <v>206.3887307694112</v>
+        <v>206.3887307694111</v>
       </c>
       <c r="L22" t="n">
-        <v>320.1938259116025</v>
+        <v>320.1938259116026</v>
       </c>
       <c r="M22" t="n">
-        <v>348.0935586684646</v>
+        <v>348.0935586684645</v>
       </c>
       <c r="N22" t="n">
-        <v>345.3061834079131</v>
+        <v>345.306183407913</v>
       </c>
       <c r="O22" t="n">
         <v>302.7680735252786</v>
       </c>
       <c r="P22" t="n">
-        <v>235.3121268241886</v>
+        <v>235.3121268241885</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.6400606861189</v>
+        <v>78.64006068611887</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>191.3424629821688</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K23" t="n">
-        <v>338.0237801248985</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L23" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M23" t="n">
-        <v>930.2628539546396</v>
+        <v>930.26285395464</v>
       </c>
       <c r="N23" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O23" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P23" t="n">
-        <v>399.703103253349</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.5010445024558</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R23" t="n">
-        <v>60.02430375087613</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.16312633164219</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K24" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L24" t="n">
-        <v>371.1624861105074</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M24" t="n">
-        <v>452.6815067806852</v>
+        <v>446.8157994628058</v>
       </c>
       <c r="N24" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O24" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P24" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.680879481773</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.78596832805351</v>
+        <v>45.78596832805349</v>
       </c>
       <c r="K25" t="n">
-        <v>206.3887307694112</v>
+        <v>206.3887307694111</v>
       </c>
       <c r="L25" t="n">
-        <v>320.1938259116025</v>
+        <v>320.1938259116024</v>
       </c>
       <c r="M25" t="n">
-        <v>348.0935586684646</v>
+        <v>348.0935586684645</v>
       </c>
       <c r="N25" t="n">
-        <v>345.3061834079131</v>
+        <v>345.306183407913</v>
       </c>
       <c r="O25" t="n">
         <v>302.7680735252786</v>
       </c>
       <c r="P25" t="n">
-        <v>235.3121268241886</v>
+        <v>235.3121268241889</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.64006068611955</v>
+        <v>78.64006068611887</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>360.4390781542426</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9025317224996</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L26" t="n">
-        <v>456.6228962794113</v>
+        <v>874.2841108298617</v>
       </c>
       <c r="M26" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N26" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O26" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P26" t="n">
-        <v>721.5018114248317</v>
+        <v>700.1309543039616</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.8160351623605</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R26" t="n">
-        <v>60.02430375087613</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K27" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L27" t="n">
-        <v>365.3712785362539</v>
+        <v>365.2967787926281</v>
       </c>
       <c r="M27" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N27" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O27" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P27" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.680879481773</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.62832494545221</v>
+        <v>92.62832494545216</v>
       </c>
       <c r="K28" t="n">
-        <v>253.2310873868099</v>
+        <v>253.2310873868098</v>
       </c>
       <c r="L28" t="n">
-        <v>367.0361825290012</v>
+        <v>367.0361825290011</v>
       </c>
       <c r="M28" t="n">
-        <v>394.9359152858633</v>
+        <v>394.9359152858632</v>
       </c>
       <c r="N28" t="n">
-        <v>392.1485400253118</v>
+        <v>392.1485400253117</v>
       </c>
       <c r="O28" t="n">
         <v>349.6104301426773</v>
       </c>
       <c r="P28" t="n">
-        <v>282.1544834415873</v>
+        <v>282.1544834415872</v>
       </c>
       <c r="Q28" t="n">
         <v>125.4824173035176</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>360.4390781542426</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K29" t="n">
-        <v>338.0237801248985</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L29" t="n">
-        <v>456.6228962794113</v>
+        <v>874.2841108298617</v>
       </c>
       <c r="M29" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N29" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O29" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P29" t="n">
-        <v>670.66414314945</v>
+        <v>700.1309543039603</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.8160351623605</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R29" t="n">
-        <v>125.7407236238586</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K30" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L30" t="n">
-        <v>371.1624861105074</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M30" t="n">
-        <v>452.6815067806852</v>
+        <v>446.8902992064317</v>
       </c>
       <c r="N30" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O30" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P30" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q30" t="n">
-        <v>153.8896719075192</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.62832494545219</v>
+        <v>92.62832494545222</v>
       </c>
       <c r="K31" t="n">
-        <v>253.2310873868098</v>
+        <v>253.2310873868099</v>
       </c>
       <c r="L31" t="n">
         <v>367.0361825290012</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>309.6014098788609</v>
+        <v>360.4390781542425</v>
       </c>
       <c r="K32" t="n">
-        <v>338.0237801248985</v>
+        <v>437.502697061054</v>
       </c>
       <c r="L32" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M32" t="n">
-        <v>540.0702846753678</v>
+        <v>989.5838181682002</v>
       </c>
       <c r="N32" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O32" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P32" t="n">
-        <v>721.5018114248317</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.8160351623605</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R32" t="n">
-        <v>125.7407236238586</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K33" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L33" t="n">
-        <v>371.1624861105074</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M33" t="n">
-        <v>452.6815067806852</v>
+        <v>446.8157994628056</v>
       </c>
       <c r="N33" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O33" t="n">
-        <v>410.1543280834235</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P33" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.680879481773</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>360.4390781542426</v>
+        <v>360.4390781542425</v>
       </c>
       <c r="K35" t="n">
-        <v>608.9848200209998</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L35" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M35" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N35" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O35" t="n">
-        <v>509.1556869403815</v>
+        <v>889.9558682031268</v>
       </c>
       <c r="P35" t="n">
-        <v>399.703103253349</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.8160351623605</v>
+        <v>353.9768937957171</v>
       </c>
       <c r="R35" t="n">
-        <v>125.7407236238586</v>
+        <v>125.7407236238585</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K36" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L36" t="n">
-        <v>371.1624861105074</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M36" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N36" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O36" t="n">
-        <v>415.9455356576772</v>
+        <v>410.079828339798</v>
       </c>
       <c r="P36" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q36" t="n">
-        <v>153.8896719075192</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.62832494545221</v>
+        <v>92.62832494545216</v>
       </c>
       <c r="K37" t="n">
-        <v>253.2310873868099</v>
+        <v>253.2310873868098</v>
       </c>
       <c r="L37" t="n">
-        <v>367.0361825290012</v>
+        <v>367.0361825290011</v>
       </c>
       <c r="M37" t="n">
-        <v>394.9359152858633</v>
+        <v>394.9359152858632</v>
       </c>
       <c r="N37" t="n">
-        <v>392.1485400253118</v>
+        <v>392.1485400253117</v>
       </c>
       <c r="O37" t="n">
         <v>349.6104301426773</v>
       </c>
       <c r="P37" t="n">
-        <v>282.1544834415873</v>
+        <v>282.1544834415872</v>
       </c>
       <c r="Q37" t="n">
         <v>125.4824173035176</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.3424629821688</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K38" t="n">
-        <v>338.0237801248985</v>
+        <v>397.2812539303296</v>
       </c>
       <c r="L38" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M38" t="n">
-        <v>540.0702846753678</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N38" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O38" t="n">
-        <v>889.9558682031269</v>
+        <v>889.9558682031268</v>
       </c>
       <c r="P38" t="n">
-        <v>458.9605770587792</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.8160351623605</v>
+        <v>463.8160351623604</v>
       </c>
       <c r="R38" t="n">
-        <v>125.7407236238586</v>
+        <v>125.7407236238585</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.16312633164235</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K39" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L39" t="n">
-        <v>371.1624861105074</v>
+        <v>365.2967787926281</v>
       </c>
       <c r="M39" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N39" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O39" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P39" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.680879481773</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.62832494545216</v>
+        <v>92.62832494545238</v>
       </c>
       <c r="K40" t="n">
         <v>253.2310873868098</v>
       </c>
       <c r="L40" t="n">
-        <v>367.0361825290012</v>
+        <v>367.0361825290011</v>
       </c>
       <c r="M40" t="n">
-        <v>394.9359152858633</v>
+        <v>394.9359152858632</v>
       </c>
       <c r="N40" t="n">
         <v>392.1485400253117</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>360.4390781542426</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K41" t="n">
-        <v>371.7862771880722</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L41" t="n">
-        <v>456.6228962794113</v>
+        <v>456.6228962794112</v>
       </c>
       <c r="M41" t="n">
-        <v>989.5838181682003</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N41" t="n">
-        <v>553.469599011386</v>
+        <v>990.81652342337</v>
       </c>
       <c r="O41" t="n">
-        <v>509.1556869403815</v>
+        <v>509.1556869403814</v>
       </c>
       <c r="P41" t="n">
-        <v>399.703103253349</v>
+        <v>614.7288245694456</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.5010445024558</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R41" t="n">
-        <v>125.7407236238586</v>
+        <v>125.7407236238585</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.95433390589588</v>
+        <v>94.95433390589585</v>
       </c>
       <c r="K42" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L42" t="n">
-        <v>371.1624861105074</v>
+        <v>365.2967787926281</v>
       </c>
       <c r="M42" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N42" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O42" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P42" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q42" t="n">
-        <v>153.8896719075192</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.62832494545218</v>
+        <v>92.62832494545216</v>
       </c>
       <c r="K43" t="n">
         <v>253.2310873868098</v>
       </c>
       <c r="L43" t="n">
-        <v>367.0361825290012</v>
+        <v>367.0361825290011</v>
       </c>
       <c r="M43" t="n">
         <v>394.9359152858632</v>
       </c>
       <c r="N43" t="n">
-        <v>392.1485400253117</v>
+        <v>392.1485400253116</v>
       </c>
       <c r="O43" t="n">
         <v>349.6104301426773</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>191.3424629821688</v>
+        <v>191.3424629821687</v>
       </c>
       <c r="K44" t="n">
-        <v>338.0237801248985</v>
+        <v>338.0237801248983</v>
       </c>
       <c r="L44" t="n">
-        <v>725.1984283876409</v>
+        <v>874.2841108298617</v>
       </c>
       <c r="M44" t="n">
-        <v>989.5838181682003</v>
+        <v>540.0702846753677</v>
       </c>
       <c r="N44" t="n">
-        <v>553.469599011386</v>
+        <v>553.4695990113858</v>
       </c>
       <c r="O44" t="n">
-        <v>509.1556869403815</v>
+        <v>809.5835379909939</v>
       </c>
       <c r="P44" t="n">
-        <v>399.703103253349</v>
+        <v>399.7031032533488</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.5010445024558</v>
+        <v>251.5010445024557</v>
       </c>
       <c r="R44" t="n">
-        <v>60.02430375087613</v>
+        <v>60.02430375087607</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.95433390589588</v>
+        <v>89.08862658801662</v>
       </c>
       <c r="K45" t="n">
-        <v>241.2363481478747</v>
+        <v>241.2363481478746</v>
       </c>
       <c r="L45" t="n">
-        <v>371.1624861105074</v>
+        <v>371.1624861105073</v>
       </c>
       <c r="M45" t="n">
-        <v>452.6815067806852</v>
+        <v>452.6815067806851</v>
       </c>
       <c r="N45" t="n">
-        <v>479.21682605289</v>
+        <v>479.2168260528899</v>
       </c>
       <c r="O45" t="n">
-        <v>415.9455356576772</v>
+        <v>415.9455356576769</v>
       </c>
       <c r="P45" t="n">
-        <v>314.3046130307851</v>
+        <v>314.304613030785</v>
       </c>
       <c r="Q45" t="n">
-        <v>153.8896719075192</v>
+        <v>159.6808794817729</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.07449974362603484</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.62832494545222</v>
+        <v>92.62832494545221</v>
       </c>
       <c r="K46" t="n">
         <v>253.2310873868099</v>
       </c>
       <c r="L46" t="n">
-        <v>367.0361825290012</v>
+        <v>367.0361825290011</v>
       </c>
       <c r="M46" t="n">
-        <v>394.9359152858633</v>
+        <v>394.9359152858632</v>
       </c>
       <c r="N46" t="n">
-        <v>392.1485400253118</v>
+        <v>392.1485400253117</v>
       </c>
       <c r="O46" t="n">
         <v>349.6104301426773</v>
       </c>
       <c r="P46" t="n">
-        <v>282.1544834415873</v>
+        <v>282.1544834415872</v>
       </c>
       <c r="Q46" t="n">
         <v>125.4824173035176</v>
